--- a/data/dataBolivia_indicadores.xlsx
+++ b/data/dataBolivia_indicadores.xlsx
@@ -779,7 +779,7 @@
         <v>3.84</v>
       </c>
       <c r="E6" s="4">
-        <v>6367.0</v>
+        <v>63.67</v>
       </c>
       <c r="F6" s="3">
         <v>1554.0</v>

--- a/data/dataBolivia_indicadores.xlsx
+++ b/data/dataBolivia_indicadores.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
   <si>
     <t>DEPARTAMENTO</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>TAMAÑO_PROMEDIO_DEL_HOGAR</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_DE_VIVIENDAS_PROPIAS</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_DE_VIVIENDAS_CON_AGUA_DE_CAÑERIA</t>
   </si>
   <si>
     <t>PORCENTAJE_ DE_VIVIENDAS_CON_ENERGIA_ELECTRICA</t>
@@ -661,8 +667,9 @@
     <col customWidth="1" min="1" max="1" width="14.88"/>
     <col customWidth="1" min="2" max="3" width="19.25"/>
     <col customWidth="1" min="4" max="4" width="31.38"/>
-    <col customWidth="1" min="5" max="5" width="52.88"/>
-    <col customWidth="1" min="6" max="6" width="42.25"/>
+    <col customWidth="1" min="5" max="5" width="33.88"/>
+    <col customWidth="1" min="6" max="7" width="52.88"/>
+    <col customWidth="1" min="8" max="8" width="42.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -681,16 +688,22 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>77376.0</v>
@@ -699,18 +712,24 @@
         <v>3.62</v>
       </c>
       <c r="E2" s="4">
+        <v>61.44</v>
+      </c>
+      <c r="F2" s="4">
+        <v>78.59</v>
+      </c>
+      <c r="G2" s="4">
         <v>87.08</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="3">
         <v>10829.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>5956.0</v>
@@ -719,18 +738,24 @@
         <v>4.11</v>
       </c>
       <c r="E3" s="4">
+        <v>89.46</v>
+      </c>
+      <c r="F3" s="4">
+        <v>40.446</v>
+      </c>
+      <c r="G3" s="4">
         <v>27.5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>983.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>9116.0</v>
@@ -739,18 +764,24 @@
         <v>4.21</v>
       </c>
       <c r="E4" s="4">
+        <v>88.2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>55.4</v>
+      </c>
+      <c r="G4" s="4">
         <v>48.96</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>1156.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>9217.0</v>
@@ -759,18 +790,24 @@
         <v>3.77</v>
       </c>
       <c r="E5" s="4">
+        <v>83.24</v>
+      </c>
+      <c r="F5" s="4">
+        <v>65.43</v>
+      </c>
+      <c r="G5" s="4">
         <v>46.23</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>1640.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
         <v>8158.0</v>
@@ -779,18 +816,24 @@
         <v>3.84</v>
       </c>
       <c r="E6" s="4">
+        <v>73.42</v>
+      </c>
+      <c r="F6" s="4">
+        <v>70.23</v>
+      </c>
+      <c r="G6" s="4">
         <v>63.67</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>1554.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>7336.0</v>
@@ -799,18 +842,24 @@
         <v>3.63</v>
       </c>
       <c r="E7" s="4">
+        <v>89.8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>48.87</v>
+      </c>
+      <c r="G7" s="4">
         <v>51.32</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>908.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>18587.0</v>
@@ -819,18 +868,24 @@
         <v>4.08</v>
       </c>
       <c r="E8" s="4">
+        <v>88.66</v>
+      </c>
+      <c r="F8" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="G8" s="4">
         <v>46.89</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1995.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>3196.0</v>
@@ -839,18 +894,24 @@
         <v>3.41</v>
       </c>
       <c r="E9" s="4">
+        <v>81.95</v>
+      </c>
+      <c r="F9" s="4">
+        <v>75.34</v>
+      </c>
+      <c r="G9" s="4">
         <v>61.73</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>533.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>6374.0</v>
@@ -859,18 +920,24 @@
         <v>3.9</v>
       </c>
       <c r="E10" s="4">
+        <v>84.66</v>
+      </c>
+      <c r="F10" s="4">
+        <v>57.04</v>
+      </c>
+      <c r="G10" s="4">
         <v>55.33</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>862.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
         <v>4886.0</v>
@@ -879,18 +946,24 @@
         <v>3.79</v>
       </c>
       <c r="E11" s="4">
+        <v>75.79</v>
+      </c>
+      <c r="F11" s="4">
+        <v>66.91</v>
+      </c>
+      <c r="G11" s="4">
         <v>59.19</v>
       </c>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
         <v>800.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>500086.0</v>
@@ -899,18 +972,24 @@
         <v>3.28</v>
       </c>
       <c r="E12" s="4">
+        <v>62.75</v>
+      </c>
+      <c r="F12" s="4">
+        <v>88.31</v>
+      </c>
+      <c r="G12" s="4">
         <v>94.37</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>72074.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
         <v>32043.0</v>
@@ -919,18 +998,24 @@
         <v>2.62</v>
       </c>
       <c r="E13" s="4">
+        <v>95.73</v>
+      </c>
+      <c r="F13" s="4">
+        <v>54.93</v>
+      </c>
+      <c r="G13" s="4">
         <v>72.93</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H13" s="3">
         <v>3283.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
         <v>18161.0</v>
@@ -939,18 +1024,24 @@
         <v>3.0</v>
       </c>
       <c r="E14" s="4">
+        <v>94.06</v>
+      </c>
+      <c r="F14" s="4">
+        <v>16.82</v>
+      </c>
+      <c r="G14" s="4">
         <v>38.26</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2443.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>22099.0</v>
@@ -959,18 +1050,24 @@
         <v>2.43</v>
       </c>
       <c r="E15" s="4">
+        <v>97.03</v>
+      </c>
+      <c r="F15" s="4">
+        <v>53.01</v>
+      </c>
+      <c r="G15" s="4">
         <v>64.71</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2761.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>8623.0</v>
@@ -979,18 +1076,24 @@
         <v>2.91</v>
       </c>
       <c r="E16" s="4">
+        <v>95.23</v>
+      </c>
+      <c r="F16" s="4">
+        <v>61.77</v>
+      </c>
+      <c r="G16" s="4">
         <v>62.22</v>
       </c>
-      <c r="F16" s="3">
+      <c r="H16" s="3">
         <v>919.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <v>29451.0</v>
@@ -999,18 +1102,24 @@
         <v>2.85</v>
       </c>
       <c r="E17" s="4">
+        <v>82.92</v>
+      </c>
+      <c r="F17" s="4">
+        <v>50.66</v>
+      </c>
+      <c r="G17" s="4">
         <v>69.33</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2835.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3">
         <v>6855.0</v>
@@ -1019,18 +1128,24 @@
         <v>3.57</v>
       </c>
       <c r="E18" s="4">
+        <v>87.28</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45.92</v>
+      </c>
+      <c r="G18" s="4">
         <v>62.09</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>804.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3">
         <v>44000.0</v>
@@ -1039,18 +1154,24 @@
         <v>3.01</v>
       </c>
       <c r="E19" s="4">
+        <v>87.99</v>
+      </c>
+      <c r="F19" s="4">
+        <v>48.84</v>
+      </c>
+      <c r="G19" s="4">
         <v>72.84</v>
       </c>
-      <c r="F19" s="3">
+      <c r="H19" s="3">
         <v>5442.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3">
         <v>15147.0</v>
@@ -1059,18 +1180,24 @@
         <v>3.1</v>
       </c>
       <c r="E20" s="4">
+        <v>91.46</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44.74</v>
+      </c>
+      <c r="G20" s="4">
         <v>69.25</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1410.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3">
         <v>19846.0</v>
@@ -1079,18 +1206,24 @@
         <v>3.3</v>
       </c>
       <c r="E21" s="4">
+        <v>82.06</v>
+      </c>
+      <c r="F21" s="4">
+        <v>50.16</v>
+      </c>
+      <c r="G21" s="4">
         <v>64.41</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1866.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3">
         <v>37770.0</v>
@@ -1099,18 +1232,24 @@
         <v>2.75</v>
       </c>
       <c r="E22" s="4">
+        <v>83.58</v>
+      </c>
+      <c r="F22" s="4">
+        <v>48.01</v>
+      </c>
+      <c r="G22" s="4">
         <v>57.0</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3019.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3">
         <v>27292.0</v>
@@ -1119,18 +1258,24 @@
         <v>2.86</v>
       </c>
       <c r="E23" s="4">
+        <v>95.31</v>
+      </c>
+      <c r="F23" s="4">
+        <v>31.86</v>
+      </c>
+      <c r="G23" s="4">
         <v>69.71</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2765.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3">
         <v>31288.0</v>
@@ -1139,18 +1284,24 @@
         <v>3.11</v>
       </c>
       <c r="E24" s="4">
+        <v>94.06</v>
+      </c>
+      <c r="F24" s="4">
+        <v>41.66</v>
+      </c>
+      <c r="G24" s="4">
         <v>66.31</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>3073.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3">
         <v>12376.0</v>
@@ -1159,18 +1310,24 @@
         <v>2.87</v>
       </c>
       <c r="E25" s="4">
+        <v>79.31</v>
+      </c>
+      <c r="F25" s="4">
+        <v>72.4</v>
+      </c>
+      <c r="G25" s="4">
         <v>78.68</v>
       </c>
-      <c r="F25" s="3">
+      <c r="H25" s="3">
         <v>1447.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3">
         <v>4275.0</v>
@@ -1179,18 +1336,24 @@
         <v>3.87</v>
       </c>
       <c r="E26" s="4">
+        <v>78.64</v>
+      </c>
+      <c r="F26" s="4">
+        <v>59.04</v>
+      </c>
+      <c r="G26" s="4">
         <v>61.45</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>497.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3">
         <v>4532.0</v>
@@ -1199,18 +1362,24 @@
         <v>3.57</v>
       </c>
       <c r="E27" s="4">
+        <v>95.63</v>
+      </c>
+      <c r="F27" s="4">
+        <v>56.47</v>
+      </c>
+      <c r="G27" s="4">
         <v>54.15</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>412.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3">
         <v>8906.0</v>
@@ -1219,18 +1388,24 @@
         <v>3.0</v>
       </c>
       <c r="E28" s="4">
+        <v>91.26</v>
+      </c>
+      <c r="F28" s="4">
+        <v>56.91</v>
+      </c>
+      <c r="G28" s="4">
         <v>73.93</v>
       </c>
-      <c r="F28" s="3">
+      <c r="H28" s="3">
         <v>1236.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3">
         <v>6026.0</v>
@@ -1239,18 +1414,24 @@
         <v>2.95</v>
       </c>
       <c r="E29" s="4">
+        <v>97.18</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.39</v>
+      </c>
+      <c r="G29" s="4">
         <v>48.32</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>628.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3">
         <v>2566.0</v>
@@ -1259,18 +1440,24 @@
         <v>2.89</v>
       </c>
       <c r="E30" s="4">
+        <v>95.32</v>
+      </c>
+      <c r="F30" s="4">
+        <v>29.81</v>
+      </c>
+      <c r="G30" s="4">
         <v>45.36</v>
       </c>
-      <c r="F30" s="3">
+      <c r="H30" s="3">
         <v>237.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3">
         <v>21231.0</v>
@@ -1279,18 +1466,24 @@
         <v>2.83</v>
       </c>
       <c r="E31" s="4">
+        <v>86.81</v>
+      </c>
+      <c r="F31" s="4">
+        <v>56.19</v>
+      </c>
+      <c r="G31" s="4">
         <v>57.34</v>
       </c>
-      <c r="F31" s="3">
+      <c r="H31" s="3">
         <v>1708.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3">
         <v>177376.0</v>
@@ -1299,18 +1492,24 @@
         <v>3.5</v>
       </c>
       <c r="E32" s="4">
+        <v>57.86</v>
+      </c>
+      <c r="F32" s="4">
+        <v>60.82</v>
+      </c>
+      <c r="G32" s="4">
         <v>96.05</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>22706.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C33" s="3">
         <v>9470.0</v>
@@ -1319,18 +1518,24 @@
         <v>3.74</v>
       </c>
       <c r="E33" s="4">
+        <v>80.91</v>
+      </c>
+      <c r="F33" s="4">
+        <v>60.92</v>
+      </c>
+      <c r="G33" s="4">
         <v>62.49</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1153.0</v>
       </c>
     </row>
     <row r="34" ht="15.0" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3">
         <v>16203.0</v>
@@ -1339,18 +1544,24 @@
         <v>3.31</v>
       </c>
       <c r="E34" s="4">
+        <v>90.85</v>
+      </c>
+      <c r="F34" s="4">
+        <v>27.99</v>
+      </c>
+      <c r="G34" s="4">
         <v>48.08</v>
       </c>
-      <c r="F34" s="3">
+      <c r="H34" s="3">
         <v>1163.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35" s="3">
         <v>12234.0</v>
@@ -1359,18 +1570,24 @@
         <v>2.98</v>
       </c>
       <c r="E35" s="4">
+        <v>89.83</v>
+      </c>
+      <c r="F35" s="4">
+        <v>46.67</v>
+      </c>
+      <c r="G35" s="4">
         <v>66.32</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1415.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3">
         <v>6346.0</v>
@@ -1379,18 +1596,24 @@
         <v>2.89</v>
       </c>
       <c r="E36" s="4">
+        <v>93.79</v>
+      </c>
+      <c r="F36" s="4">
+        <v>60.37</v>
+      </c>
+      <c r="G36" s="4">
         <v>74.25</v>
       </c>
-      <c r="F36" s="3">
+      <c r="H36" s="3">
         <v>591.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C37" s="3">
         <v>6640.0</v>
@@ -1399,18 +1622,24 @@
         <v>3.1</v>
       </c>
       <c r="E37" s="4">
+        <v>95.63</v>
+      </c>
+      <c r="F37" s="4">
+        <v>45.2</v>
+      </c>
+      <c r="G37" s="4">
         <v>43.22</v>
       </c>
-      <c r="F37" s="3">
+      <c r="H37" s="3">
         <v>421.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3">
         <v>9414.0</v>
@@ -1419,18 +1648,24 @@
         <v>3.11</v>
       </c>
       <c r="E38" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="F38" s="4">
+        <v>62.45</v>
+      </c>
+      <c r="G38" s="4">
         <v>70.5</v>
       </c>
-      <c r="F38" s="3">
+      <c r="H38" s="3">
         <v>942.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C39" s="3">
         <v>9491.0</v>
@@ -1439,18 +1674,24 @@
         <v>3.58</v>
       </c>
       <c r="E39" s="4">
+        <v>81.74</v>
+      </c>
+      <c r="F39" s="4">
+        <v>66.21</v>
+      </c>
+      <c r="G39" s="4">
         <v>92.52</v>
       </c>
-      <c r="F39" s="3">
+      <c r="H39" s="3">
         <v>1215.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3">
         <v>89217.0</v>
@@ -1459,18 +1700,24 @@
         <v>3.71</v>
       </c>
       <c r="E40" s="4">
+        <v>62.19</v>
+      </c>
+      <c r="F40" s="4">
+        <v>68.84</v>
+      </c>
+      <c r="G40" s="4">
         <v>93.97</v>
       </c>
-      <c r="F40" s="3">
+      <c r="H40" s="3">
         <v>9679.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C41" s="3">
         <v>80283.0</v>
@@ -1479,18 +1726,24 @@
         <v>3.21</v>
       </c>
       <c r="E41" s="4">
+        <v>76.32</v>
+      </c>
+      <c r="F41" s="4">
+        <v>44.79</v>
+      </c>
+      <c r="G41" s="4">
         <v>73.59</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7295.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C42" s="3">
         <v>8113.0</v>
@@ -1499,18 +1752,24 @@
         <v>3.01</v>
       </c>
       <c r="E42" s="4">
+        <v>96.35</v>
+      </c>
+      <c r="F42" s="4">
+        <v>20.67</v>
+      </c>
+      <c r="G42" s="4">
         <v>33.93</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>565.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3">
         <v>47965.0</v>
@@ -1519,18 +1778,24 @@
         <v>2.73</v>
       </c>
       <c r="E43" s="4">
+        <v>85.38</v>
+      </c>
+      <c r="F43" s="4">
+        <v>36.03</v>
+      </c>
+      <c r="G43" s="4">
         <v>54.87</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3448.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3">
         <v>10573.0</v>
@@ -1539,18 +1804,24 @@
         <v>3.35</v>
       </c>
       <c r="E44" s="4">
+        <v>88.55</v>
+      </c>
+      <c r="F44" s="4">
+        <v>42.39</v>
+      </c>
+      <c r="G44" s="4">
         <v>45.12</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>944.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C45" s="3">
         <v>16810.0</v>
@@ -1559,18 +1830,24 @@
         <v>3.23</v>
       </c>
       <c r="E45" s="4">
+        <v>83.97</v>
+      </c>
+      <c r="F45" s="4">
+        <v>58.05</v>
+      </c>
+      <c r="G45" s="4">
         <v>90.87</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1736.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" s="3">
         <v>2366.0</v>
@@ -1579,18 +1856,24 @@
         <v>3.03</v>
       </c>
       <c r="E46" s="4">
+        <v>97.0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>55.45</v>
+      </c>
+      <c r="G46" s="4">
         <v>48.86</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>202.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C47" s="3">
         <v>14107.0</v>
@@ -1599,18 +1882,24 @@
         <v>2.93</v>
       </c>
       <c r="E47" s="4">
+        <v>89.03</v>
+      </c>
+      <c r="F47" s="4">
+        <v>52.22</v>
+      </c>
+      <c r="G47" s="4">
         <v>62.76</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1027.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C48" s="3">
         <v>90135.0</v>
@@ -1619,18 +1908,24 @@
         <v>3.38</v>
       </c>
       <c r="E48" s="4">
+        <v>65.79</v>
+      </c>
+      <c r="F48" s="4">
+        <v>78.53</v>
+      </c>
+      <c r="G48" s="4">
         <v>88.25</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11732.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C49" s="3">
         <v>11224.0</v>
@@ -1639,18 +1934,24 @@
         <v>2.8</v>
       </c>
       <c r="E49" s="4">
+        <v>88.49</v>
+      </c>
+      <c r="F49" s="4">
+        <v>49.32</v>
+      </c>
+      <c r="G49" s="4">
         <v>66.16</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1018.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50" s="3">
         <v>3688.0</v>
@@ -1659,18 +1960,24 @@
         <v>2.94</v>
       </c>
       <c r="E50" s="4">
+        <v>92.08</v>
+      </c>
+      <c r="F50" s="4">
+        <v>18.71</v>
+      </c>
+      <c r="G50" s="4">
         <v>48.32</v>
       </c>
-      <c r="F50" s="3">
+      <c r="H50" s="3">
         <v>463.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" s="3">
         <v>2911.0</v>
@@ -1679,18 +1986,24 @@
         <v>3.11</v>
       </c>
       <c r="E51" s="4">
+        <v>87.05</v>
+      </c>
+      <c r="F51" s="4">
+        <v>37.31</v>
+      </c>
+      <c r="G51" s="4">
         <v>63.38</v>
       </c>
-      <c r="F51" s="3">
+      <c r="H51" s="3">
         <v>555.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52" s="3">
         <v>2903.0</v>
@@ -1699,18 +2012,24 @@
         <v>3.45</v>
       </c>
       <c r="E52" s="4">
+        <v>86.46</v>
+      </c>
+      <c r="F52" s="4">
+        <v>42.58</v>
+      </c>
+      <c r="G52" s="4">
         <v>61.69</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>278.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C53" s="3">
         <v>6182.0</v>
@@ -1719,18 +2038,24 @@
         <v>2.65</v>
       </c>
       <c r="E53" s="4">
+        <v>73.29</v>
+      </c>
+      <c r="F53" s="4">
+        <v>55.27</v>
+      </c>
+      <c r="G53" s="4">
         <v>74.31</v>
       </c>
-      <c r="F53" s="3">
+      <c r="H53" s="3">
         <v>773.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C54" s="3">
         <v>8747.0</v>
@@ -1739,18 +2064,24 @@
         <v>3.31</v>
       </c>
       <c r="E54" s="4">
+        <v>67.22</v>
+      </c>
+      <c r="F54" s="4">
+        <v>71.32</v>
+      </c>
+      <c r="G54" s="4">
         <v>93.51</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>880.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55" s="3">
         <v>4967.0</v>
@@ -1759,18 +2090,24 @@
         <v>2.95</v>
       </c>
       <c r="E55" s="4">
+        <v>91.56</v>
+      </c>
+      <c r="F55" s="4">
+        <v>34.89</v>
+      </c>
+      <c r="G55" s="4">
         <v>63.88</v>
       </c>
-      <c r="F55" s="3">
+      <c r="H55" s="3">
         <v>543.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C56" s="3">
         <v>3090.0</v>
@@ -1779,18 +2116,24 @@
         <v>3.45</v>
       </c>
       <c r="E56" s="4">
+        <v>76.44</v>
+      </c>
+      <c r="F56" s="4">
+        <v>38.51</v>
+      </c>
+      <c r="G56" s="4">
         <v>74.6</v>
       </c>
-      <c r="F56" s="3">
+      <c r="H56" s="3">
         <v>404.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C57" s="3">
         <v>4331.0</v>
@@ -1799,18 +2142,24 @@
         <v>2.32</v>
       </c>
       <c r="E57" s="4">
+        <v>87.67</v>
+      </c>
+      <c r="F57" s="4">
+        <v>13.23</v>
+      </c>
+      <c r="G57" s="4">
         <v>39.74</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>439.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C58" s="3">
         <v>1898.0</v>
@@ -1819,18 +2168,24 @@
         <v>2.75</v>
       </c>
       <c r="E58" s="4">
+        <v>79.56</v>
+      </c>
+      <c r="F58" s="4">
+        <v>61.75</v>
+      </c>
+      <c r="G58" s="4">
         <v>81.61</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>167.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C59" s="3">
         <v>2720.0</v>
@@ -1839,18 +2194,24 @@
         <v>2.64</v>
       </c>
       <c r="E59" s="4">
+        <v>91.69</v>
+      </c>
+      <c r="F59" s="4">
+        <v>28.93</v>
+      </c>
+      <c r="G59" s="4">
         <v>50.4</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>350.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C60" s="3">
         <v>1886.0</v>
@@ -1859,18 +2220,24 @@
         <v>2.91</v>
       </c>
       <c r="E60" s="4">
+        <v>94.7</v>
+      </c>
+      <c r="F60" s="4">
+        <v>13.52</v>
+      </c>
+      <c r="G60" s="4">
         <v>43.0</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>236.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C61" s="3">
         <v>4506.0</v>
@@ -1879,18 +2246,24 @@
         <v>3.04</v>
       </c>
       <c r="E61" s="4">
+        <v>89.39</v>
+      </c>
+      <c r="F61" s="4">
+        <v>43.81</v>
+      </c>
+      <c r="G61" s="4">
         <v>61.19</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>453.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C62" s="3">
         <v>619.0</v>
@@ -1899,18 +2272,24 @@
         <v>3.24</v>
       </c>
       <c r="E62" s="4">
+        <v>80.61</v>
+      </c>
+      <c r="F62" s="4">
+        <v>24.07</v>
+      </c>
+      <c r="G62" s="4">
         <v>52.02</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>38.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63" s="3">
         <v>2254.0</v>
@@ -1919,18 +2298,24 @@
         <v>2.42</v>
       </c>
       <c r="E63" s="4">
+        <v>94.32</v>
+      </c>
+      <c r="F63" s="4">
+        <v>24.31</v>
+      </c>
+      <c r="G63" s="4">
         <v>36.16</v>
       </c>
-      <c r="F63" s="3">
+      <c r="H63" s="3">
         <v>309.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C64" s="3">
         <v>63169.0</v>
@@ -1939,18 +2324,24 @@
         <v>3.59</v>
       </c>
       <c r="E64" s="4">
+        <v>65.28</v>
+      </c>
+      <c r="F64" s="4">
+        <v>79.33</v>
+      </c>
+      <c r="G64" s="4">
         <v>86.52</v>
       </c>
-      <c r="F64" s="3">
+      <c r="H64" s="3">
         <v>6638.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C65" s="3">
         <v>25965.0</v>
@@ -1959,18 +2350,24 @@
         <v>3.3</v>
       </c>
       <c r="E65" s="4">
+        <v>79.53</v>
+      </c>
+      <c r="F65" s="4">
+        <v>57.47</v>
+      </c>
+      <c r="G65" s="4">
         <v>77.91</v>
       </c>
-      <c r="F65" s="3">
+      <c r="H65" s="3">
         <v>2538.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C66" s="3">
         <v>16840.0</v>
@@ -1979,18 +2376,24 @@
         <v>3.27</v>
       </c>
       <c r="E66" s="4">
+        <v>92.07</v>
+      </c>
+      <c r="F66" s="4">
+        <v>37.56</v>
+      </c>
+      <c r="G66" s="4">
         <v>59.93</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1933.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C67" s="3">
         <v>30743.0</v>
@@ -1999,18 +2402,24 @@
         <v>3.18</v>
       </c>
       <c r="E67" s="4">
+        <v>91.12</v>
+      </c>
+      <c r="F67" s="4">
+        <v>29.92</v>
+      </c>
+      <c r="G67" s="4">
         <v>46.1</v>
       </c>
-      <c r="F67" s="3">
+      <c r="H67" s="3">
         <v>2464.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C68" s="3">
         <v>11788.0</v>
@@ -2019,18 +2428,24 @@
         <v>3.44</v>
       </c>
       <c r="E68" s="4">
+        <v>92.03</v>
+      </c>
+      <c r="F68" s="4">
+        <v>32.09</v>
+      </c>
+      <c r="G68" s="4">
         <v>26.31</v>
       </c>
-      <c r="F68" s="3">
+      <c r="H68" s="3">
         <v>1042.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C69" s="3">
         <v>12595.0</v>
@@ -2039,18 +2454,24 @@
         <v>3.33</v>
       </c>
       <c r="E69" s="4">
+        <v>82.36</v>
+      </c>
+      <c r="F69" s="4">
+        <v>46.79</v>
+      </c>
+      <c r="G69" s="4">
         <v>69.34</v>
       </c>
-      <c r="F69" s="3">
+      <c r="H69" s="3">
         <v>1334.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C70" s="3">
         <v>8359.0</v>
@@ -2059,18 +2480,24 @@
         <v>3.35</v>
       </c>
       <c r="E70" s="4">
+        <v>90.74</v>
+      </c>
+      <c r="F70" s="4">
+        <v>41.62</v>
+      </c>
+      <c r="G70" s="4">
         <v>53.99</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>543.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C71" s="3">
         <v>16895.0</v>
@@ -2079,18 +2506,24 @@
         <v>3.23</v>
       </c>
       <c r="E71" s="4">
+        <v>59.46</v>
+      </c>
+      <c r="F71" s="4">
+        <v>64.94</v>
+      </c>
+      <c r="G71" s="4">
         <v>86.16</v>
       </c>
-      <c r="F71" s="3">
+      <c r="H71" s="3">
         <v>2358.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C72" s="3">
         <v>3679.0</v>
@@ -2099,18 +2532,24 @@
         <v>3.29</v>
       </c>
       <c r="E72" s="4">
+        <v>72.82</v>
+      </c>
+      <c r="F72" s="4">
+        <v>66.65</v>
+      </c>
+      <c r="G72" s="4">
         <v>72.36</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>436.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C73" s="3">
         <v>1944.0</v>
@@ -2119,18 +2558,24 @@
         <v>3.28</v>
       </c>
       <c r="E73" s="4">
+        <v>84.88</v>
+      </c>
+      <c r="F73" s="4">
+        <v>47.48</v>
+      </c>
+      <c r="G73" s="4">
         <v>64.25</v>
       </c>
-      <c r="F73" s="3">
+      <c r="H73" s="3">
         <v>184.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C74" s="3">
         <v>14472.0</v>
@@ -2139,18 +2584,24 @@
         <v>3.4</v>
       </c>
       <c r="E74" s="4">
+        <v>93.46</v>
+      </c>
+      <c r="F74" s="4">
+        <v>39.72</v>
+      </c>
+      <c r="G74" s="4">
         <v>63.85</v>
       </c>
-      <c r="F74" s="3">
+      <c r="H74" s="3">
         <v>1831.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C75" s="3">
         <v>17969.0</v>
@@ -2159,18 +2610,24 @@
         <v>3.0</v>
       </c>
       <c r="E75" s="4">
+        <v>73.62</v>
+      </c>
+      <c r="F75" s="4">
+        <v>56.94</v>
+      </c>
+      <c r="G75" s="4">
         <v>74.71</v>
       </c>
-      <c r="F75" s="3">
+      <c r="H75" s="3">
         <v>1887.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C76" s="3">
         <v>3017.0</v>
@@ -2179,18 +2636,24 @@
         <v>3.39</v>
       </c>
       <c r="E76" s="4">
+        <v>83.79</v>
+      </c>
+      <c r="F76" s="4">
+        <v>36.91</v>
+      </c>
+      <c r="G76" s="4">
         <v>60.51</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>306.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C77" s="3">
         <v>2183.0</v>
@@ -2199,18 +2662,24 @@
         <v>2.59</v>
       </c>
       <c r="E77" s="4">
+        <v>80.35</v>
+      </c>
+      <c r="F77" s="4">
+        <v>52.54</v>
+      </c>
+      <c r="G77" s="4">
         <v>59.96</v>
       </c>
-      <c r="F77" s="3">
+      <c r="H77" s="3">
         <v>233.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C78" s="3">
         <v>12074.0</v>
@@ -2219,18 +2688,24 @@
         <v>3.61</v>
       </c>
       <c r="E78" s="4">
+        <v>69.4</v>
+      </c>
+      <c r="F78" s="4">
+        <v>73.47</v>
+      </c>
+      <c r="G78" s="4">
         <v>87.25</v>
       </c>
-      <c r="F78" s="3">
+      <c r="H78" s="3">
         <v>1775.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C79" s="3">
         <v>489.0</v>
@@ -2239,18 +2714,24 @@
         <v>3.37</v>
       </c>
       <c r="E79" s="4">
+        <v>92.23</v>
+      </c>
+      <c r="F79" s="4">
+        <v>67.89</v>
+      </c>
+      <c r="G79" s="4">
         <v>63.8</v>
       </c>
-      <c r="F79" s="3">
+      <c r="H79" s="3">
         <v>69.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C80" s="3">
         <v>54926.0</v>
@@ -2259,18 +2740,24 @@
         <v>3.62</v>
       </c>
       <c r="E80" s="4">
+        <v>59.06</v>
+      </c>
+      <c r="F80" s="4">
+        <v>86.37</v>
+      </c>
+      <c r="G80" s="4">
         <v>94.18</v>
       </c>
-      <c r="F80" s="3">
+      <c r="H80" s="3">
         <v>7986.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C81" s="3">
         <v>14102.0</v>
@@ -2279,18 +2766,24 @@
         <v>3.63</v>
       </c>
       <c r="E81" s="4">
+        <v>72.88</v>
+      </c>
+      <c r="F81" s="4">
+        <v>84.23</v>
+      </c>
+      <c r="G81" s="4">
         <v>90.1</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2065.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C82" s="3">
         <v>36422.0</v>
@@ -2299,18 +2792,24 @@
         <v>3.82</v>
       </c>
       <c r="E82" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="F82" s="4">
+        <v>80.53</v>
+      </c>
+      <c r="G82" s="4">
         <v>91.35</v>
       </c>
-      <c r="F82" s="3">
+      <c r="H82" s="3">
         <v>4953.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C83" s="3">
         <v>5646.0</v>
@@ -2319,18 +2818,24 @@
         <v>3.5</v>
       </c>
       <c r="E83" s="4">
+        <v>87.37</v>
+      </c>
+      <c r="F83" s="4">
+        <v>69.73</v>
+      </c>
+      <c r="G83" s="4">
         <v>76.62</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>838.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C84" s="3">
         <v>9737.0</v>
@@ -2339,18 +2844,24 @@
         <v>3.51</v>
       </c>
       <c r="E84" s="4">
+        <v>81.08</v>
+      </c>
+      <c r="F84" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="G84" s="4">
         <v>80.58</v>
       </c>
-      <c r="F84" s="3">
+      <c r="H84" s="3">
         <v>1617.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C85" s="3">
         <v>5415.0</v>
@@ -2359,18 +2870,24 @@
         <v>3.73</v>
       </c>
       <c r="E85" s="4">
+        <v>79.37</v>
+      </c>
+      <c r="F85" s="4">
+        <v>80.46</v>
+      </c>
+      <c r="G85" s="4">
         <v>67.94</v>
       </c>
-      <c r="F85" s="3">
+      <c r="H85" s="3">
         <v>753.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C86" s="3">
         <v>410289.0</v>
@@ -2379,18 +2896,24 @@
         <v>3.94</v>
       </c>
       <c r="E86" s="4">
+        <v>52.53</v>
+      </c>
+      <c r="F86" s="4">
+        <v>92.18</v>
+      </c>
+      <c r="G86" s="4">
         <v>98.04</v>
       </c>
-      <c r="F86" s="3">
+      <c r="H86" s="3">
         <v>55686.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C87" s="3">
         <v>25778.0</v>
@@ -2399,18 +2922,24 @@
         <v>4.16</v>
       </c>
       <c r="E87" s="4">
+        <v>66.72</v>
+      </c>
+      <c r="F87" s="4">
+        <v>85.27</v>
+      </c>
+      <c r="G87" s="4">
         <v>93.89</v>
       </c>
-      <c r="F87" s="3">
+      <c r="H87" s="3">
         <v>3014.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C88" s="3">
         <v>14546.0</v>
@@ -2419,18 +2948,24 @@
         <v>4.67</v>
       </c>
       <c r="E88" s="4">
+        <v>75.63</v>
+      </c>
+      <c r="F88" s="4">
+        <v>56.32</v>
+      </c>
+      <c r="G88" s="4">
         <v>69.96</v>
       </c>
-      <c r="F88" s="3">
+      <c r="H88" s="3">
         <v>1338.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C89" s="3">
         <v>24574.0</v>
@@ -2439,18 +2974,24 @@
         <v>3.65</v>
       </c>
       <c r="E89" s="4">
+        <v>76.57</v>
+      </c>
+      <c r="F89" s="4">
+        <v>58.68</v>
+      </c>
+      <c r="G89" s="4">
         <v>97.36</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2226.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C90" s="3">
         <v>15495.0</v>
@@ -2459,18 +3000,24 @@
         <v>4.7</v>
       </c>
       <c r="E90" s="4">
+        <v>71.98</v>
+      </c>
+      <c r="F90" s="4">
+        <v>66.71</v>
+      </c>
+      <c r="G90" s="4">
         <v>86.05</v>
       </c>
-      <c r="F90" s="3">
+      <c r="H90" s="3">
         <v>1790.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C91" s="3">
         <v>10451.0</v>
@@ -2479,18 +3026,24 @@
         <v>4.06</v>
       </c>
       <c r="E91" s="4">
+        <v>71.91</v>
+      </c>
+      <c r="F91" s="4">
+        <v>68.76</v>
+      </c>
+      <c r="G91" s="4">
         <v>77.23</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>1083.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C92" s="3">
         <v>25882.0</v>
@@ -2499,18 +3052,24 @@
         <v>4.47</v>
       </c>
       <c r="E92" s="4">
+        <v>74.16</v>
+      </c>
+      <c r="F92" s="4">
+        <v>65.28</v>
+      </c>
+      <c r="G92" s="4">
         <v>71.7</v>
       </c>
-      <c r="F92" s="3">
+      <c r="H92" s="3">
         <v>3378.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C93" s="3">
         <v>7956.0</v>
@@ -2519,18 +3078,24 @@
         <v>3.26</v>
       </c>
       <c r="E93" s="4">
+        <v>70.79</v>
+      </c>
+      <c r="F93" s="4">
+        <v>77.7</v>
+      </c>
+      <c r="G93" s="4">
         <v>72.15</v>
       </c>
-      <c r="F93" s="3">
+      <c r="H93" s="3">
         <v>1122.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C94" s="3">
         <v>9507.0</v>
@@ -2539,18 +3104,24 @@
         <v>3.4</v>
       </c>
       <c r="E94" s="4">
+        <v>67.26</v>
+      </c>
+      <c r="F94" s="4">
+        <v>76.92</v>
+      </c>
+      <c r="G94" s="4">
         <v>81.87</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1042.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C95" s="3">
         <v>41546.0</v>
@@ -2559,18 +3130,24 @@
         <v>4.18</v>
       </c>
       <c r="E95" s="4">
+        <v>65.82</v>
+      </c>
+      <c r="F95" s="4">
+        <v>83.01</v>
+      </c>
+      <c r="G95" s="4">
         <v>91.71</v>
       </c>
-      <c r="F95" s="3">
+      <c r="H95" s="3">
         <v>4560.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C96" s="3">
         <v>28102.0</v>
@@ -2579,18 +3156,24 @@
         <v>4.02</v>
       </c>
       <c r="E96" s="4">
+        <v>75.85</v>
+      </c>
+      <c r="F96" s="4">
+        <v>53.97</v>
+      </c>
+      <c r="G96" s="4">
         <v>70.86</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>2395.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C97" s="3">
         <v>3215.0</v>
@@ -2599,18 +3182,24 @@
         <v>4.38</v>
       </c>
       <c r="E97" s="4">
+        <v>74.81</v>
+      </c>
+      <c r="F97" s="4">
+        <v>47.37</v>
+      </c>
+      <c r="G97" s="4">
         <v>76.58</v>
       </c>
-      <c r="F97" s="3">
+      <c r="H97" s="3">
         <v>362.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C98" s="3">
         <v>6422.0</v>
@@ -2619,18 +3208,24 @@
         <v>3.56</v>
       </c>
       <c r="E98" s="4">
+        <v>66.13</v>
+      </c>
+      <c r="F98" s="4">
+        <v>69.25</v>
+      </c>
+      <c r="G98" s="4">
         <v>80.07</v>
       </c>
-      <c r="F98" s="3">
+      <c r="H98" s="3">
         <v>559.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C99" s="3">
         <v>9927.0</v>
@@ -2639,18 +3234,24 @@
         <v>4.06</v>
       </c>
       <c r="E99" s="4">
+        <v>64.84</v>
+      </c>
+      <c r="F99" s="4">
+        <v>82.13</v>
+      </c>
+      <c r="G99" s="4">
         <v>87.08</v>
       </c>
-      <c r="F99" s="3">
+      <c r="H99" s="3">
         <v>1108.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C100" s="3">
         <v>11164.0</v>
@@ -2659,18 +3260,24 @@
         <v>4.2</v>
       </c>
       <c r="E100" s="4">
+        <v>76.47</v>
+      </c>
+      <c r="F100" s="4">
+        <v>28.08</v>
+      </c>
+      <c r="G100" s="4">
         <v>64.62</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1040.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C101" s="3">
         <v>25954.0</v>
@@ -2679,18 +3286,24 @@
         <v>4.17</v>
       </c>
       <c r="E101" s="4">
+        <v>60.68</v>
+      </c>
+      <c r="F101" s="4">
+        <v>53.66</v>
+      </c>
+      <c r="G101" s="4">
         <v>92.09</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>3485.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C102" s="3">
         <v>28849.0</v>
@@ -2699,18 +3312,24 @@
         <v>4.41</v>
       </c>
       <c r="E102" s="4">
+        <v>69.95</v>
+      </c>
+      <c r="F102" s="4">
+        <v>32.66</v>
+      </c>
+      <c r="G102" s="4">
         <v>87.79</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4205.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C103" s="3">
         <v>19207.0</v>
@@ -2719,18 +3338,24 @@
         <v>4.19</v>
       </c>
       <c r="E103" s="4">
+        <v>73.0</v>
+      </c>
+      <c r="F103" s="4">
+        <v>50.07</v>
+      </c>
+      <c r="G103" s="4">
         <v>68.49</v>
       </c>
-      <c r="F103" s="3">
+      <c r="H103" s="3">
         <v>2178.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C104" s="3">
         <v>4650.0</v>
@@ -2739,18 +3364,24 @@
         <v>5.14</v>
       </c>
       <c r="E104" s="4">
+        <v>64.65</v>
+      </c>
+      <c r="F104" s="4">
+        <v>43.48</v>
+      </c>
+      <c r="G104" s="4">
         <v>80.39</v>
       </c>
-      <c r="F104" s="3">
+      <c r="H104" s="3">
         <v>566.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C105" s="3">
         <v>4354.0</v>
@@ -2759,18 +3390,24 @@
         <v>4.72</v>
       </c>
       <c r="E105" s="4">
+        <v>72.21</v>
+      </c>
+      <c r="F105" s="4">
+        <v>17.02</v>
+      </c>
+      <c r="G105" s="4">
         <v>69.11</v>
       </c>
-      <c r="F105" s="3">
+      <c r="H105" s="3">
         <v>512.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C106" s="3">
         <v>3860.0</v>
@@ -2779,18 +3416,24 @@
         <v>4.02</v>
       </c>
       <c r="E106" s="4">
+        <v>72.9</v>
+      </c>
+      <c r="F106" s="4">
+        <v>24.87</v>
+      </c>
+      <c r="G106" s="4">
         <v>59.3</v>
       </c>
-      <c r="F106" s="3">
+      <c r="H106" s="3">
         <v>378.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C107" s="3">
         <v>2609.0</v>
@@ -2799,18 +3442,24 @@
         <v>4.64</v>
       </c>
       <c r="E107" s="4">
+        <v>61.17</v>
+      </c>
+      <c r="F107" s="4">
+        <v>39.82</v>
+      </c>
+      <c r="G107" s="4">
         <v>81.91</v>
       </c>
-      <c r="F107" s="3">
+      <c r="H107" s="3">
         <v>398.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C108" s="3">
         <v>4407.0</v>
@@ -2819,18 +3468,24 @@
         <v>4.66</v>
       </c>
       <c r="E108" s="4">
+        <v>74.09</v>
+      </c>
+      <c r="F108" s="4">
+        <v>23.76</v>
+      </c>
+      <c r="G108" s="4">
         <v>84.05</v>
       </c>
-      <c r="F108" s="3">
+      <c r="H108" s="3">
         <v>715.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C109" s="3">
         <v>15448.0</v>
@@ -2839,18 +3494,24 @@
         <v>3.68</v>
       </c>
       <c r="E109" s="4">
+        <v>65.18</v>
+      </c>
+      <c r="F109" s="4">
+        <v>60.23</v>
+      </c>
+      <c r="G109" s="4">
         <v>86.21</v>
       </c>
-      <c r="F109" s="3">
+      <c r="H109" s="3">
         <v>1888.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C110" s="3">
         <v>3420.0</v>
@@ -2859,18 +3520,24 @@
         <v>4.14</v>
       </c>
       <c r="E110" s="4">
+        <v>76.32</v>
+      </c>
+      <c r="F110" s="4">
+        <v>23.04</v>
+      </c>
+      <c r="G110" s="4">
         <v>55.0</v>
       </c>
-      <c r="F110" s="3">
+      <c r="H110" s="3">
         <v>277.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C111" s="3">
         <v>4021.0</v>
@@ -2879,18 +3546,24 @@
         <v>5.66</v>
       </c>
       <c r="E111" s="4">
+        <v>82.91</v>
+      </c>
+      <c r="F111" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="G111" s="4">
         <v>41.13</v>
       </c>
-      <c r="F111" s="3">
+      <c r="H111" s="3">
         <v>362.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C112" s="3">
         <v>955.0</v>
@@ -2899,18 +3572,24 @@
         <v>3.98</v>
       </c>
       <c r="E112" s="4">
+        <v>81.05</v>
+      </c>
+      <c r="F112" s="4">
+        <v>16.75</v>
+      </c>
+      <c r="G112" s="4">
         <v>64.4</v>
       </c>
-      <c r="F112" s="3">
+      <c r="H112" s="3">
         <v>87.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C113" s="3">
         <v>1521.0</v>
@@ -2919,3027 +3598,4541 @@
         <v>4.3</v>
       </c>
       <c r="E113" s="4">
+        <v>82.25</v>
+      </c>
+      <c r="F113" s="4">
+        <v>5.26</v>
+      </c>
+      <c r="G113" s="4">
         <v>51.94</v>
       </c>
-      <c r="F113" s="3">
+      <c r="H113" s="3">
         <v>133.0</v>
       </c>
     </row>
     <row r="114">
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115">
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116">
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117">
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118">
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119">
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120">
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121">
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122">
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123">
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
     </row>
     <row r="124">
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
     </row>
     <row r="125">
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126">
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127">
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
     </row>
     <row r="128">
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129">
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130">
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131">
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
     </row>
     <row r="132">
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133">
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134">
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135">
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136">
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137">
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138">
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139">
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140">
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141">
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142">
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143">
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144">
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145">
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146">
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147">
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148">
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
     </row>
     <row r="149">
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
     </row>
     <row r="150">
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
     </row>
     <row r="151">
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
     </row>
     <row r="152">
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
     </row>
     <row r="153">
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
     </row>
     <row r="154">
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
     </row>
     <row r="155">
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
     </row>
     <row r="156">
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
     </row>
     <row r="157">
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
     </row>
     <row r="158">
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
     </row>
     <row r="159">
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
     </row>
     <row r="160">
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
     </row>
     <row r="161">
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
     </row>
     <row r="162">
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
     </row>
     <row r="163">
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
     </row>
     <row r="164">
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
     </row>
     <row r="165">
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
     </row>
     <row r="166">
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
     </row>
     <row r="167">
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
     </row>
     <row r="168">
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
     </row>
     <row r="169">
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
     </row>
     <row r="170">
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
     </row>
     <row r="171">
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
     </row>
     <row r="172">
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
     </row>
     <row r="173">
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
     </row>
     <row r="174">
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
     </row>
     <row r="175">
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
     </row>
     <row r="176">
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
     </row>
     <row r="177">
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
     </row>
     <row r="178">
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
     </row>
     <row r="179">
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
     </row>
     <row r="180">
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
     </row>
     <row r="181">
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
     </row>
     <row r="182">
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
     </row>
     <row r="183">
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
     </row>
     <row r="184">
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
     </row>
     <row r="185">
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
     </row>
     <row r="186">
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
     </row>
     <row r="187">
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
     </row>
     <row r="188">
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
     </row>
     <row r="189">
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
     </row>
     <row r="190">
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
     </row>
     <row r="191">
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
     </row>
     <row r="192">
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
     </row>
     <row r="193">
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
     </row>
     <row r="194">
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
     </row>
     <row r="195">
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
     </row>
     <row r="196">
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
     </row>
     <row r="197">
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
     </row>
     <row r="198">
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
     </row>
     <row r="199">
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
     </row>
     <row r="200">
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
     </row>
     <row r="201">
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
     </row>
     <row r="202">
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
     </row>
     <row r="203">
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
     </row>
     <row r="204">
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
     </row>
     <row r="205">
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
     </row>
     <row r="206">
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
     </row>
     <row r="207">
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
     </row>
     <row r="208">
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
     </row>
     <row r="209">
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
     </row>
     <row r="210">
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
     </row>
     <row r="211">
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
     </row>
     <row r="212">
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
     </row>
     <row r="213">
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
     </row>
     <row r="214">
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
     </row>
     <row r="215">
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
     </row>
     <row r="216">
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
     </row>
     <row r="217">
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
     </row>
     <row r="218">
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
     </row>
     <row r="219">
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
     </row>
     <row r="220">
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
     </row>
     <row r="221">
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
     </row>
     <row r="222">
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
     </row>
     <row r="223">
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
     </row>
     <row r="224">
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
     </row>
     <row r="225">
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
     </row>
     <row r="226">
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
     </row>
     <row r="227">
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
     </row>
     <row r="228">
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
     </row>
     <row r="229">
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
     </row>
     <row r="230">
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
     </row>
     <row r="231">
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
     </row>
     <row r="232">
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
     </row>
     <row r="233">
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
     </row>
     <row r="234">
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
     </row>
     <row r="235">
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
     </row>
     <row r="236">
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
     </row>
     <row r="237">
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
     </row>
     <row r="238">
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
     </row>
     <row r="239">
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
     </row>
     <row r="240">
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
     </row>
     <row r="241">
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
     </row>
     <row r="242">
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
     </row>
     <row r="243">
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
     </row>
     <row r="244">
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
     </row>
     <row r="245">
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
     </row>
     <row r="246">
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
     </row>
     <row r="247">
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
     </row>
     <row r="248">
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
     </row>
     <row r="249">
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
     </row>
     <row r="250">
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
     </row>
     <row r="251">
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
     </row>
     <row r="252">
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
     </row>
     <row r="253">
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
     </row>
     <row r="254">
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
     </row>
     <row r="255">
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
     </row>
     <row r="256">
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
     </row>
     <row r="257">
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
     </row>
     <row r="258">
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
     </row>
     <row r="259">
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
     </row>
     <row r="260">
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
     </row>
     <row r="261">
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
     </row>
     <row r="262">
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
     </row>
     <row r="263">
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
     </row>
     <row r="264">
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
     </row>
     <row r="265">
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
     </row>
     <row r="266">
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
     </row>
     <row r="267">
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
     </row>
     <row r="268">
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
     </row>
     <row r="269">
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
     </row>
     <row r="270">
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
     </row>
     <row r="271">
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
     </row>
     <row r="272">
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
     </row>
     <row r="273">
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
     </row>
     <row r="274">
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
     </row>
     <row r="275">
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
     </row>
     <row r="276">
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
     </row>
     <row r="277">
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
     </row>
     <row r="278">
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
     </row>
     <row r="279">
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
     </row>
     <row r="280">
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
     </row>
     <row r="281">
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
     </row>
     <row r="282">
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
     </row>
     <row r="283">
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
     </row>
     <row r="284">
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
     </row>
     <row r="285">
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
     </row>
     <row r="286">
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
     </row>
     <row r="287">
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
     </row>
     <row r="288">
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
     </row>
     <row r="289">
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
     </row>
     <row r="290">
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
     </row>
     <row r="291">
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
     </row>
     <row r="292">
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
     </row>
     <row r="293">
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
     </row>
     <row r="294">
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
     </row>
     <row r="295">
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
     </row>
     <row r="296">
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
     </row>
     <row r="297">
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
     </row>
     <row r="298">
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
     </row>
     <row r="299">
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
     </row>
     <row r="300">
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
     </row>
     <row r="301">
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
     </row>
     <row r="302">
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
     </row>
     <row r="303">
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
     </row>
     <row r="304">
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
     </row>
     <row r="305">
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
     </row>
     <row r="306">
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
     </row>
     <row r="307">
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
     </row>
     <row r="308">
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
     </row>
     <row r="309">
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
     </row>
     <row r="310">
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
     </row>
     <row r="311">
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
     </row>
     <row r="312">
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
     </row>
     <row r="313">
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
     </row>
     <row r="314">
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
     </row>
     <row r="315">
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
     </row>
     <row r="316">
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
     </row>
     <row r="317">
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
     </row>
     <row r="318">
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
     </row>
     <row r="319">
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
     </row>
     <row r="320">
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="5"/>
     </row>
     <row r="321">
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
     </row>
     <row r="322">
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
     </row>
     <row r="323">
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
     </row>
     <row r="324">
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
     </row>
     <row r="325">
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
     </row>
     <row r="326">
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
     </row>
     <row r="327">
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
     </row>
     <row r="328">
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
     </row>
     <row r="329">
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
     </row>
     <row r="330">
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
     </row>
     <row r="331">
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
     </row>
     <row r="332">
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
     </row>
     <row r="333">
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
     </row>
     <row r="334">
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
     </row>
     <row r="335">
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
     </row>
     <row r="336">
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
     </row>
     <row r="337">
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
     </row>
     <row r="338">
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
     </row>
     <row r="339">
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
     </row>
     <row r="340">
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
     </row>
     <row r="341">
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
     </row>
     <row r="342">
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
     </row>
     <row r="343">
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
     </row>
     <row r="344">
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
     </row>
     <row r="345">
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
     </row>
     <row r="346">
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
     </row>
     <row r="347">
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
     </row>
     <row r="348">
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
     </row>
     <row r="349">
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
     </row>
     <row r="350">
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
     </row>
     <row r="351">
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
     </row>
     <row r="352">
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
     </row>
     <row r="353">
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
     </row>
     <row r="354">
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
     </row>
     <row r="355">
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
     </row>
     <row r="356">
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
     </row>
     <row r="357">
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
     </row>
     <row r="358">
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
     </row>
     <row r="359">
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
     </row>
     <row r="360">
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
     </row>
     <row r="361">
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
     </row>
     <row r="362">
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
     </row>
     <row r="363">
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
     </row>
     <row r="364">
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
     </row>
     <row r="365">
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
     </row>
     <row r="366">
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
     </row>
     <row r="367">
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
     </row>
     <row r="368">
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
     </row>
     <row r="369">
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
     </row>
     <row r="370">
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
     </row>
     <row r="371">
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
     </row>
     <row r="372">
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
     </row>
     <row r="373">
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
     </row>
     <row r="374">
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
     </row>
     <row r="375">
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
     </row>
     <row r="376">
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
     </row>
     <row r="377">
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
     </row>
     <row r="378">
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
     </row>
     <row r="379">
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
     </row>
     <row r="380">
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
     </row>
     <row r="381">
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
     </row>
     <row r="382">
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
     </row>
     <row r="383">
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
     </row>
     <row r="384">
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
     </row>
     <row r="385">
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
     </row>
     <row r="386">
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
     </row>
     <row r="387">
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
+      <c r="G387" s="5"/>
     </row>
     <row r="388">
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
     </row>
     <row r="389">
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
     </row>
     <row r="390">
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5"/>
     </row>
     <row r="391">
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5"/>
     </row>
     <row r="392">
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
+      <c r="G392" s="5"/>
     </row>
     <row r="393">
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
+      <c r="G393" s="5"/>
     </row>
     <row r="394">
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
     </row>
     <row r="395">
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
     </row>
     <row r="396">
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
+      <c r="F396" s="5"/>
+      <c r="G396" s="5"/>
     </row>
     <row r="397">
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
     </row>
     <row r="398">
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
     </row>
     <row r="399">
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+      <c r="G399" s="5"/>
     </row>
     <row r="400">
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
     </row>
     <row r="401">
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
+      <c r="G401" s="5"/>
     </row>
     <row r="402">
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
     </row>
     <row r="403">
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
     </row>
     <row r="404">
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
     </row>
     <row r="405">
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
     </row>
     <row r="406">
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
     </row>
     <row r="407">
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
     </row>
     <row r="408">
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+      <c r="G408" s="5"/>
     </row>
     <row r="409">
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
     </row>
     <row r="410">
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
     </row>
     <row r="411">
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
     </row>
     <row r="412">
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
     </row>
     <row r="413">
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
     </row>
     <row r="414">
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
     </row>
     <row r="415">
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
     </row>
     <row r="416">
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
     </row>
     <row r="417">
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
     </row>
     <row r="418">
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
     </row>
     <row r="419">
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
     </row>
     <row r="420">
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
     </row>
     <row r="421">
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+      <c r="G421" s="5"/>
     </row>
     <row r="422">
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+      <c r="G422" s="5"/>
     </row>
     <row r="423">
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
     </row>
     <row r="424">
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
     </row>
     <row r="425">
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5"/>
     </row>
     <row r="426">
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
+      <c r="F426" s="5"/>
+      <c r="G426" s="5"/>
     </row>
     <row r="427">
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
+      <c r="G427" s="5"/>
     </row>
     <row r="428">
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
     </row>
     <row r="429">
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
+      <c r="G429" s="5"/>
     </row>
     <row r="430">
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5"/>
     </row>
     <row r="431">
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+      <c r="G431" s="5"/>
     </row>
     <row r="432">
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
     </row>
     <row r="433">
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
+      <c r="G433" s="5"/>
     </row>
     <row r="434">
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
+      <c r="G434" s="5"/>
     </row>
     <row r="435">
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
     </row>
     <row r="436">
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+      <c r="G436" s="5"/>
     </row>
     <row r="437">
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
+      <c r="F437" s="5"/>
+      <c r="G437" s="5"/>
     </row>
     <row r="438">
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
+      <c r="F438" s="5"/>
+      <c r="G438" s="5"/>
     </row>
     <row r="439">
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
+      <c r="F439" s="5"/>
+      <c r="G439" s="5"/>
     </row>
     <row r="440">
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
+      <c r="F440" s="5"/>
+      <c r="G440" s="5"/>
     </row>
     <row r="441">
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
+      <c r="F441" s="5"/>
+      <c r="G441" s="5"/>
     </row>
     <row r="442">
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
+      <c r="F442" s="5"/>
+      <c r="G442" s="5"/>
     </row>
     <row r="443">
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
+      <c r="F443" s="5"/>
+      <c r="G443" s="5"/>
     </row>
     <row r="444">
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
+      <c r="F444" s="5"/>
+      <c r="G444" s="5"/>
     </row>
     <row r="445">
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
+      <c r="F445" s="5"/>
+      <c r="G445" s="5"/>
     </row>
     <row r="446">
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
+      <c r="F446" s="5"/>
+      <c r="G446" s="5"/>
     </row>
     <row r="447">
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
     </row>
     <row r="448">
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
     </row>
     <row r="449">
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+      <c r="G449" s="5"/>
     </row>
     <row r="450">
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
     </row>
     <row r="451">
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+      <c r="G451" s="5"/>
     </row>
     <row r="452">
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+      <c r="G452" s="5"/>
     </row>
     <row r="453">
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
+      <c r="F453" s="5"/>
+      <c r="G453" s="5"/>
     </row>
     <row r="454">
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
+      <c r="F454" s="5"/>
+      <c r="G454" s="5"/>
     </row>
     <row r="455">
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+      <c r="G455" s="5"/>
     </row>
     <row r="456">
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+      <c r="G456" s="5"/>
     </row>
     <row r="457">
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
+      <c r="F457" s="5"/>
+      <c r="G457" s="5"/>
     </row>
     <row r="458">
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
+      <c r="F458" s="5"/>
+      <c r="G458" s="5"/>
     </row>
     <row r="459">
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+      <c r="G459" s="5"/>
     </row>
     <row r="460">
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+      <c r="G460" s="5"/>
     </row>
     <row r="461">
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
+      <c r="F461" s="5"/>
+      <c r="G461" s="5"/>
     </row>
     <row r="462">
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
+      <c r="F462" s="5"/>
+      <c r="G462" s="5"/>
     </row>
     <row r="463">
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
+      <c r="F463" s="5"/>
+      <c r="G463" s="5"/>
     </row>
     <row r="464">
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
+      <c r="G464" s="5"/>
     </row>
     <row r="465">
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
+      <c r="F465" s="5"/>
+      <c r="G465" s="5"/>
     </row>
     <row r="466">
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+      <c r="G466" s="5"/>
     </row>
     <row r="467">
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+      <c r="G467" s="5"/>
     </row>
     <row r="468">
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+      <c r="G468" s="5"/>
     </row>
     <row r="469">
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
+      <c r="F469" s="5"/>
+      <c r="G469" s="5"/>
     </row>
     <row r="470">
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+      <c r="G470" s="5"/>
     </row>
     <row r="471">
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
+      <c r="F471" s="5"/>
+      <c r="G471" s="5"/>
     </row>
     <row r="472">
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+      <c r="G472" s="5"/>
     </row>
     <row r="473">
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
+      <c r="F473" s="5"/>
+      <c r="G473" s="5"/>
     </row>
     <row r="474">
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
+      <c r="F474" s="5"/>
+      <c r="G474" s="5"/>
     </row>
     <row r="475">
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+      <c r="G475" s="5"/>
     </row>
     <row r="476">
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
+      <c r="F476" s="5"/>
+      <c r="G476" s="5"/>
     </row>
     <row r="477">
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
+      <c r="F477" s="5"/>
+      <c r="G477" s="5"/>
     </row>
     <row r="478">
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
+      <c r="F478" s="5"/>
+      <c r="G478" s="5"/>
     </row>
     <row r="479">
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
+      <c r="F479" s="5"/>
+      <c r="G479" s="5"/>
     </row>
     <row r="480">
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
+      <c r="F480" s="5"/>
+      <c r="G480" s="5"/>
     </row>
     <row r="481">
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
+      <c r="F481" s="5"/>
+      <c r="G481" s="5"/>
     </row>
     <row r="482">
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
+      <c r="F482" s="5"/>
+      <c r="G482" s="5"/>
     </row>
     <row r="483">
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
+      <c r="F483" s="5"/>
+      <c r="G483" s="5"/>
     </row>
     <row r="484">
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
+      <c r="F484" s="5"/>
+      <c r="G484" s="5"/>
     </row>
     <row r="485">
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
+      <c r="F485" s="5"/>
+      <c r="G485" s="5"/>
     </row>
     <row r="486">
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
+      <c r="F486" s="5"/>
+      <c r="G486" s="5"/>
     </row>
     <row r="487">
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
+      <c r="F487" s="5"/>
+      <c r="G487" s="5"/>
     </row>
     <row r="488">
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
+      <c r="F488" s="5"/>
+      <c r="G488" s="5"/>
     </row>
     <row r="489">
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
+      <c r="F489" s="5"/>
+      <c r="G489" s="5"/>
     </row>
     <row r="490">
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
+      <c r="F490" s="5"/>
+      <c r="G490" s="5"/>
     </row>
     <row r="491">
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
+      <c r="F491" s="5"/>
+      <c r="G491" s="5"/>
     </row>
     <row r="492">
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
+      <c r="F492" s="5"/>
+      <c r="G492" s="5"/>
     </row>
     <row r="493">
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
+      <c r="F493" s="5"/>
+      <c r="G493" s="5"/>
     </row>
     <row r="494">
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
+      <c r="F494" s="5"/>
+      <c r="G494" s="5"/>
     </row>
     <row r="495">
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
+      <c r="F495" s="5"/>
+      <c r="G495" s="5"/>
     </row>
     <row r="496">
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
+      <c r="F496" s="5"/>
+      <c r="G496" s="5"/>
     </row>
     <row r="497">
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
+      <c r="F497" s="5"/>
+      <c r="G497" s="5"/>
     </row>
     <row r="498">
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
+      <c r="F498" s="5"/>
+      <c r="G498" s="5"/>
     </row>
     <row r="499">
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
+      <c r="F499" s="5"/>
+      <c r="G499" s="5"/>
     </row>
     <row r="500">
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
+      <c r="F500" s="5"/>
+      <c r="G500" s="5"/>
     </row>
     <row r="501">
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
+      <c r="F501" s="5"/>
+      <c r="G501" s="5"/>
     </row>
     <row r="502">
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
+      <c r="F502" s="5"/>
+      <c r="G502" s="5"/>
     </row>
     <row r="503">
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
+      <c r="F503" s="5"/>
+      <c r="G503" s="5"/>
     </row>
     <row r="504">
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
+      <c r="F504" s="5"/>
+      <c r="G504" s="5"/>
     </row>
     <row r="505">
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
+      <c r="F505" s="5"/>
+      <c r="G505" s="5"/>
     </row>
     <row r="506">
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
+      <c r="F506" s="5"/>
+      <c r="G506" s="5"/>
     </row>
     <row r="507">
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
+      <c r="F507" s="5"/>
+      <c r="G507" s="5"/>
     </row>
     <row r="508">
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
+      <c r="F508" s="5"/>
+      <c r="G508" s="5"/>
     </row>
     <row r="509">
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
+      <c r="F509" s="5"/>
+      <c r="G509" s="5"/>
     </row>
     <row r="510">
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
+      <c r="F510" s="5"/>
+      <c r="G510" s="5"/>
     </row>
     <row r="511">
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
+      <c r="F511" s="5"/>
+      <c r="G511" s="5"/>
     </row>
     <row r="512">
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
+      <c r="F512" s="5"/>
+      <c r="G512" s="5"/>
     </row>
     <row r="513">
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
+      <c r="F513" s="5"/>
+      <c r="G513" s="5"/>
     </row>
     <row r="514">
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
+      <c r="F514" s="5"/>
+      <c r="G514" s="5"/>
     </row>
     <row r="515">
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
+      <c r="F515" s="5"/>
+      <c r="G515" s="5"/>
     </row>
     <row r="516">
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
+      <c r="F516" s="5"/>
+      <c r="G516" s="5"/>
     </row>
     <row r="517">
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
+      <c r="F517" s="5"/>
+      <c r="G517" s="5"/>
     </row>
     <row r="518">
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
+      <c r="F518" s="5"/>
+      <c r="G518" s="5"/>
     </row>
     <row r="519">
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
+      <c r="F519" s="5"/>
+      <c r="G519" s="5"/>
     </row>
     <row r="520">
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
+      <c r="F520" s="5"/>
+      <c r="G520" s="5"/>
     </row>
     <row r="521">
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
+      <c r="F521" s="5"/>
+      <c r="G521" s="5"/>
     </row>
     <row r="522">
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
+      <c r="F522" s="5"/>
+      <c r="G522" s="5"/>
     </row>
     <row r="523">
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
+      <c r="F523" s="5"/>
+      <c r="G523" s="5"/>
     </row>
     <row r="524">
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
+      <c r="F524" s="5"/>
+      <c r="G524" s="5"/>
     </row>
     <row r="525">
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
+      <c r="F525" s="5"/>
+      <c r="G525" s="5"/>
     </row>
     <row r="526">
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
+      <c r="F526" s="5"/>
+      <c r="G526" s="5"/>
     </row>
     <row r="527">
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
+      <c r="F527" s="5"/>
+      <c r="G527" s="5"/>
     </row>
     <row r="528">
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
+      <c r="F528" s="5"/>
+      <c r="G528" s="5"/>
     </row>
     <row r="529">
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
+      <c r="F529" s="5"/>
+      <c r="G529" s="5"/>
     </row>
     <row r="530">
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
+      <c r="F530" s="5"/>
+      <c r="G530" s="5"/>
     </row>
     <row r="531">
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
+      <c r="F531" s="5"/>
+      <c r="G531" s="5"/>
     </row>
     <row r="532">
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
+      <c r="F532" s="5"/>
+      <c r="G532" s="5"/>
     </row>
     <row r="533">
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
+      <c r="F533" s="5"/>
+      <c r="G533" s="5"/>
     </row>
     <row r="534">
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
+      <c r="F534" s="5"/>
+      <c r="G534" s="5"/>
     </row>
     <row r="535">
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
+      <c r="F535" s="5"/>
+      <c r="G535" s="5"/>
     </row>
     <row r="536">
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
+      <c r="F536" s="5"/>
+      <c r="G536" s="5"/>
     </row>
     <row r="537">
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
+      <c r="F537" s="5"/>
+      <c r="G537" s="5"/>
     </row>
     <row r="538">
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
+      <c r="F538" s="5"/>
+      <c r="G538" s="5"/>
     </row>
     <row r="539">
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
+      <c r="F539" s="5"/>
+      <c r="G539" s="5"/>
     </row>
     <row r="540">
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
+      <c r="F540" s="5"/>
+      <c r="G540" s="5"/>
     </row>
     <row r="541">
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
+      <c r="F541" s="5"/>
+      <c r="G541" s="5"/>
     </row>
     <row r="542">
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
+      <c r="F542" s="5"/>
+      <c r="G542" s="5"/>
     </row>
     <row r="543">
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
+      <c r="F543" s="5"/>
+      <c r="G543" s="5"/>
     </row>
     <row r="544">
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
+      <c r="F544" s="5"/>
+      <c r="G544" s="5"/>
     </row>
     <row r="545">
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
+      <c r="F545" s="5"/>
+      <c r="G545" s="5"/>
     </row>
     <row r="546">
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
+      <c r="F546" s="5"/>
+      <c r="G546" s="5"/>
     </row>
     <row r="547">
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
+      <c r="F547" s="5"/>
+      <c r="G547" s="5"/>
     </row>
     <row r="548">
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
+      <c r="F548" s="5"/>
+      <c r="G548" s="5"/>
     </row>
     <row r="549">
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
+      <c r="F549" s="5"/>
+      <c r="G549" s="5"/>
     </row>
     <row r="550">
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
+      <c r="F550" s="5"/>
+      <c r="G550" s="5"/>
     </row>
     <row r="551">
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
+      <c r="F551" s="5"/>
+      <c r="G551" s="5"/>
     </row>
     <row r="552">
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
+      <c r="F552" s="5"/>
+      <c r="G552" s="5"/>
     </row>
     <row r="553">
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
+      <c r="F553" s="5"/>
+      <c r="G553" s="5"/>
     </row>
     <row r="554">
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
+      <c r="F554" s="5"/>
+      <c r="G554" s="5"/>
     </row>
     <row r="555">
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
+      <c r="F555" s="5"/>
+      <c r="G555" s="5"/>
     </row>
     <row r="556">
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
+      <c r="F556" s="5"/>
+      <c r="G556" s="5"/>
     </row>
     <row r="557">
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
+      <c r="F557" s="5"/>
+      <c r="G557" s="5"/>
     </row>
     <row r="558">
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
+      <c r="F558" s="5"/>
+      <c r="G558" s="5"/>
     </row>
     <row r="559">
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
+      <c r="F559" s="5"/>
+      <c r="G559" s="5"/>
     </row>
     <row r="560">
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
+      <c r="F560" s="5"/>
+      <c r="G560" s="5"/>
     </row>
     <row r="561">
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
+      <c r="F561" s="5"/>
+      <c r="G561" s="5"/>
     </row>
     <row r="562">
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
+      <c r="F562" s="5"/>
+      <c r="G562" s="5"/>
     </row>
     <row r="563">
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
+      <c r="F563" s="5"/>
+      <c r="G563" s="5"/>
     </row>
     <row r="564">
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
+      <c r="F564" s="5"/>
+      <c r="G564" s="5"/>
     </row>
     <row r="565">
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
+      <c r="F565" s="5"/>
+      <c r="G565" s="5"/>
     </row>
     <row r="566">
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
+      <c r="F566" s="5"/>
+      <c r="G566" s="5"/>
     </row>
     <row r="567">
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
+      <c r="F567" s="5"/>
+      <c r="G567" s="5"/>
     </row>
     <row r="568">
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
+      <c r="F568" s="5"/>
+      <c r="G568" s="5"/>
     </row>
     <row r="569">
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
+      <c r="F569" s="5"/>
+      <c r="G569" s="5"/>
     </row>
     <row r="570">
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
+      <c r="F570" s="5"/>
+      <c r="G570" s="5"/>
     </row>
     <row r="571">
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
+      <c r="F571" s="5"/>
+      <c r="G571" s="5"/>
     </row>
     <row r="572">
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
+      <c r="F572" s="5"/>
+      <c r="G572" s="5"/>
     </row>
     <row r="573">
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
+      <c r="F573" s="5"/>
+      <c r="G573" s="5"/>
     </row>
     <row r="574">
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
+      <c r="F574" s="5"/>
+      <c r="G574" s="5"/>
     </row>
     <row r="575">
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
+      <c r="F575" s="5"/>
+      <c r="G575" s="5"/>
     </row>
     <row r="576">
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
+      <c r="F576" s="5"/>
+      <c r="G576" s="5"/>
     </row>
     <row r="577">
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
+      <c r="F577" s="5"/>
+      <c r="G577" s="5"/>
     </row>
     <row r="578">
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
+      <c r="F578" s="5"/>
+      <c r="G578" s="5"/>
     </row>
     <row r="579">
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
+      <c r="F579" s="5"/>
+      <c r="G579" s="5"/>
     </row>
     <row r="580">
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
+      <c r="F580" s="5"/>
+      <c r="G580" s="5"/>
     </row>
     <row r="581">
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
+      <c r="F581" s="5"/>
+      <c r="G581" s="5"/>
     </row>
     <row r="582">
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
+      <c r="F582" s="5"/>
+      <c r="G582" s="5"/>
     </row>
     <row r="583">
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
+      <c r="F583" s="5"/>
+      <c r="G583" s="5"/>
     </row>
     <row r="584">
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
+      <c r="F584" s="5"/>
+      <c r="G584" s="5"/>
     </row>
     <row r="585">
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
+      <c r="F585" s="5"/>
+      <c r="G585" s="5"/>
     </row>
     <row r="586">
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
+      <c r="F586" s="5"/>
+      <c r="G586" s="5"/>
     </row>
     <row r="587">
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
+      <c r="F587" s="5"/>
+      <c r="G587" s="5"/>
     </row>
     <row r="588">
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
+      <c r="F588" s="5"/>
+      <c r="G588" s="5"/>
     </row>
     <row r="589">
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
+      <c r="F589" s="5"/>
+      <c r="G589" s="5"/>
     </row>
     <row r="590">
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
+      <c r="F590" s="5"/>
+      <c r="G590" s="5"/>
     </row>
     <row r="591">
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
+      <c r="F591" s="5"/>
+      <c r="G591" s="5"/>
     </row>
     <row r="592">
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
+      <c r="F592" s="5"/>
+      <c r="G592" s="5"/>
     </row>
     <row r="593">
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
+      <c r="F593" s="5"/>
+      <c r="G593" s="5"/>
     </row>
     <row r="594">
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
+      <c r="F594" s="5"/>
+      <c r="G594" s="5"/>
     </row>
     <row r="595">
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
+      <c r="F595" s="5"/>
+      <c r="G595" s="5"/>
     </row>
     <row r="596">
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
+      <c r="F596" s="5"/>
+      <c r="G596" s="5"/>
     </row>
     <row r="597">
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
+      <c r="F597" s="5"/>
+      <c r="G597" s="5"/>
     </row>
     <row r="598">
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
+      <c r="F598" s="5"/>
+      <c r="G598" s="5"/>
     </row>
     <row r="599">
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
+      <c r="F599" s="5"/>
+      <c r="G599" s="5"/>
     </row>
     <row r="600">
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
+      <c r="F600" s="5"/>
+      <c r="G600" s="5"/>
     </row>
     <row r="601">
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
+      <c r="F601" s="5"/>
+      <c r="G601" s="5"/>
     </row>
     <row r="602">
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
+      <c r="F602" s="5"/>
+      <c r="G602" s="5"/>
     </row>
     <row r="603">
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
+      <c r="F603" s="5"/>
+      <c r="G603" s="5"/>
     </row>
     <row r="604">
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
+      <c r="F604" s="5"/>
+      <c r="G604" s="5"/>
     </row>
     <row r="605">
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
+      <c r="F605" s="5"/>
+      <c r="G605" s="5"/>
     </row>
     <row r="606">
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
+      <c r="F606" s="5"/>
+      <c r="G606" s="5"/>
     </row>
     <row r="607">
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
+      <c r="F607" s="5"/>
+      <c r="G607" s="5"/>
     </row>
     <row r="608">
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
+      <c r="F608" s="5"/>
+      <c r="G608" s="5"/>
     </row>
     <row r="609">
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
+      <c r="F609" s="5"/>
+      <c r="G609" s="5"/>
     </row>
     <row r="610">
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
+      <c r="F610" s="5"/>
+      <c r="G610" s="5"/>
     </row>
     <row r="611">
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
+      <c r="F611" s="5"/>
+      <c r="G611" s="5"/>
     </row>
     <row r="612">
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
+      <c r="F612" s="5"/>
+      <c r="G612" s="5"/>
     </row>
     <row r="613">
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
+      <c r="F613" s="5"/>
+      <c r="G613" s="5"/>
     </row>
     <row r="614">
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
+      <c r="F614" s="5"/>
+      <c r="G614" s="5"/>
     </row>
     <row r="615">
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
+      <c r="F615" s="5"/>
+      <c r="G615" s="5"/>
     </row>
     <row r="616">
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
+      <c r="F616" s="5"/>
+      <c r="G616" s="5"/>
     </row>
     <row r="617">
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
+      <c r="F617" s="5"/>
+      <c r="G617" s="5"/>
     </row>
     <row r="618">
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
+      <c r="F618" s="5"/>
+      <c r="G618" s="5"/>
     </row>
     <row r="619">
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
+      <c r="F619" s="5"/>
+      <c r="G619" s="5"/>
     </row>
     <row r="620">
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
+      <c r="F620" s="5"/>
+      <c r="G620" s="5"/>
     </row>
     <row r="621">
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
+      <c r="F621" s="5"/>
+      <c r="G621" s="5"/>
     </row>
     <row r="622">
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
+      <c r="F622" s="5"/>
+      <c r="G622" s="5"/>
     </row>
     <row r="623">
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
+      <c r="F623" s="5"/>
+      <c r="G623" s="5"/>
     </row>
     <row r="624">
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
+      <c r="F624" s="5"/>
+      <c r="G624" s="5"/>
     </row>
     <row r="625">
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
+      <c r="F625" s="5"/>
+      <c r="G625" s="5"/>
     </row>
     <row r="626">
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
+      <c r="F626" s="5"/>
+      <c r="G626" s="5"/>
     </row>
     <row r="627">
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
+      <c r="F627" s="5"/>
+      <c r="G627" s="5"/>
     </row>
     <row r="628">
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
+      <c r="F628" s="5"/>
+      <c r="G628" s="5"/>
     </row>
     <row r="629">
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
+      <c r="F629" s="5"/>
+      <c r="G629" s="5"/>
     </row>
     <row r="630">
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
+      <c r="F630" s="5"/>
+      <c r="G630" s="5"/>
     </row>
     <row r="631">
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
+      <c r="F631" s="5"/>
+      <c r="G631" s="5"/>
     </row>
     <row r="632">
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
+      <c r="F632" s="5"/>
+      <c r="G632" s="5"/>
     </row>
     <row r="633">
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
+      <c r="F633" s="5"/>
+      <c r="G633" s="5"/>
     </row>
     <row r="634">
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
+      <c r="F634" s="5"/>
+      <c r="G634" s="5"/>
     </row>
     <row r="635">
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
+      <c r="F635" s="5"/>
+      <c r="G635" s="5"/>
     </row>
     <row r="636">
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
+      <c r="F636" s="5"/>
+      <c r="G636" s="5"/>
     </row>
     <row r="637">
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
+      <c r="F637" s="5"/>
+      <c r="G637" s="5"/>
     </row>
     <row r="638">
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
+      <c r="F638" s="5"/>
+      <c r="G638" s="5"/>
     </row>
     <row r="639">
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
+      <c r="F639" s="5"/>
+      <c r="G639" s="5"/>
     </row>
     <row r="640">
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
+      <c r="F640" s="5"/>
+      <c r="G640" s="5"/>
     </row>
     <row r="641">
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
+      <c r="F641" s="5"/>
+      <c r="G641" s="5"/>
     </row>
     <row r="642">
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
+      <c r="F642" s="5"/>
+      <c r="G642" s="5"/>
     </row>
     <row r="643">
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
+      <c r="F643" s="5"/>
+      <c r="G643" s="5"/>
     </row>
     <row r="644">
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
+      <c r="F644" s="5"/>
+      <c r="G644" s="5"/>
     </row>
     <row r="645">
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
+      <c r="F645" s="5"/>
+      <c r="G645" s="5"/>
     </row>
     <row r="646">
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
+      <c r="F646" s="5"/>
+      <c r="G646" s="5"/>
     </row>
     <row r="647">
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
+      <c r="F647" s="5"/>
+      <c r="G647" s="5"/>
     </row>
     <row r="648">
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
+      <c r="F648" s="5"/>
+      <c r="G648" s="5"/>
     </row>
     <row r="649">
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
+      <c r="F649" s="5"/>
+      <c r="G649" s="5"/>
     </row>
     <row r="650">
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
+      <c r="F650" s="5"/>
+      <c r="G650" s="5"/>
     </row>
     <row r="651">
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
+      <c r="F651" s="5"/>
+      <c r="G651" s="5"/>
     </row>
     <row r="652">
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
+      <c r="F652" s="5"/>
+      <c r="G652" s="5"/>
     </row>
     <row r="653">
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
+      <c r="F653" s="5"/>
+      <c r="G653" s="5"/>
     </row>
     <row r="654">
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
+      <c r="F654" s="5"/>
+      <c r="G654" s="5"/>
     </row>
     <row r="655">
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
+      <c r="F655" s="5"/>
+      <c r="G655" s="5"/>
     </row>
     <row r="656">
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
+      <c r="F656" s="5"/>
+      <c r="G656" s="5"/>
     </row>
     <row r="657">
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
+      <c r="F657" s="5"/>
+      <c r="G657" s="5"/>
     </row>
     <row r="658">
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
+      <c r="F658" s="5"/>
+      <c r="G658" s="5"/>
     </row>
     <row r="659">
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
+      <c r="F659" s="5"/>
+      <c r="G659" s="5"/>
     </row>
     <row r="660">
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
+      <c r="F660" s="5"/>
+      <c r="G660" s="5"/>
     </row>
     <row r="661">
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
+      <c r="F661" s="5"/>
+      <c r="G661" s="5"/>
     </row>
     <row r="662">
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
+      <c r="F662" s="5"/>
+      <c r="G662" s="5"/>
     </row>
     <row r="663">
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
+      <c r="F663" s="5"/>
+      <c r="G663" s="5"/>
     </row>
     <row r="664">
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
+      <c r="F664" s="5"/>
+      <c r="G664" s="5"/>
     </row>
     <row r="665">
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
+      <c r="F665" s="5"/>
+      <c r="G665" s="5"/>
     </row>
     <row r="666">
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
+      <c r="F666" s="5"/>
+      <c r="G666" s="5"/>
     </row>
     <row r="667">
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
+      <c r="F667" s="5"/>
+      <c r="G667" s="5"/>
     </row>
     <row r="668">
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
+      <c r="F668" s="5"/>
+      <c r="G668" s="5"/>
     </row>
     <row r="669">
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
+      <c r="F669" s="5"/>
+      <c r="G669" s="5"/>
     </row>
     <row r="670">
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
+      <c r="F670" s="5"/>
+      <c r="G670" s="5"/>
     </row>
     <row r="671">
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
+      <c r="F671" s="5"/>
+      <c r="G671" s="5"/>
     </row>
     <row r="672">
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
+      <c r="F672" s="5"/>
+      <c r="G672" s="5"/>
     </row>
     <row r="673">
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
+      <c r="F673" s="5"/>
+      <c r="G673" s="5"/>
     </row>
     <row r="674">
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
+      <c r="F674" s="5"/>
+      <c r="G674" s="5"/>
     </row>
     <row r="675">
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
+      <c r="F675" s="5"/>
+      <c r="G675" s="5"/>
     </row>
     <row r="676">
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
+      <c r="F676" s="5"/>
+      <c r="G676" s="5"/>
     </row>
     <row r="677">
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
+      <c r="F677" s="5"/>
+      <c r="G677" s="5"/>
     </row>
     <row r="678">
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
+      <c r="F678" s="5"/>
+      <c r="G678" s="5"/>
     </row>
     <row r="679">
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
+      <c r="F679" s="5"/>
+      <c r="G679" s="5"/>
     </row>
     <row r="680">
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
+      <c r="F680" s="5"/>
+      <c r="G680" s="5"/>
     </row>
     <row r="681">
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
+      <c r="F681" s="5"/>
+      <c r="G681" s="5"/>
     </row>
     <row r="682">
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
+      <c r="F682" s="5"/>
+      <c r="G682" s="5"/>
     </row>
     <row r="683">
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
+      <c r="F683" s="5"/>
+      <c r="G683" s="5"/>
     </row>
     <row r="684">
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
+      <c r="F684" s="5"/>
+      <c r="G684" s="5"/>
     </row>
     <row r="685">
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
+      <c r="F685" s="5"/>
+      <c r="G685" s="5"/>
     </row>
     <row r="686">
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
+      <c r="F686" s="5"/>
+      <c r="G686" s="5"/>
     </row>
     <row r="687">
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
+      <c r="F687" s="5"/>
+      <c r="G687" s="5"/>
     </row>
     <row r="688">
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
+      <c r="F688" s="5"/>
+      <c r="G688" s="5"/>
     </row>
     <row r="689">
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
+      <c r="F689" s="5"/>
+      <c r="G689" s="5"/>
     </row>
     <row r="690">
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
+      <c r="F690" s="5"/>
+      <c r="G690" s="5"/>
     </row>
     <row r="691">
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
+      <c r="F691" s="5"/>
+      <c r="G691" s="5"/>
     </row>
     <row r="692">
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
+      <c r="F692" s="5"/>
+      <c r="G692" s="5"/>
     </row>
     <row r="693">
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
+      <c r="F693" s="5"/>
+      <c r="G693" s="5"/>
     </row>
     <row r="694">
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
+      <c r="F694" s="5"/>
+      <c r="G694" s="5"/>
     </row>
     <row r="695">
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
+      <c r="F695" s="5"/>
+      <c r="G695" s="5"/>
     </row>
     <row r="696">
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
+      <c r="F696" s="5"/>
+      <c r="G696" s="5"/>
     </row>
     <row r="697">
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
+      <c r="F697" s="5"/>
+      <c r="G697" s="5"/>
     </row>
     <row r="698">
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
+      <c r="F698" s="5"/>
+      <c r="G698" s="5"/>
     </row>
     <row r="699">
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
+      <c r="F699" s="5"/>
+      <c r="G699" s="5"/>
     </row>
     <row r="700">
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
+      <c r="F700" s="5"/>
+      <c r="G700" s="5"/>
     </row>
     <row r="701">
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
+      <c r="F701" s="5"/>
+      <c r="G701" s="5"/>
     </row>
     <row r="702">
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
+      <c r="F702" s="5"/>
+      <c r="G702" s="5"/>
     </row>
     <row r="703">
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
+      <c r="F703" s="5"/>
+      <c r="G703" s="5"/>
     </row>
     <row r="704">
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
+      <c r="F704" s="5"/>
+      <c r="G704" s="5"/>
     </row>
     <row r="705">
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
+      <c r="F705" s="5"/>
+      <c r="G705" s="5"/>
     </row>
     <row r="706">
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
+      <c r="F706" s="5"/>
+      <c r="G706" s="5"/>
     </row>
     <row r="707">
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
+      <c r="F707" s="5"/>
+      <c r="G707" s="5"/>
     </row>
     <row r="708">
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
+      <c r="F708" s="5"/>
+      <c r="G708" s="5"/>
     </row>
     <row r="709">
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
+      <c r="F709" s="5"/>
+      <c r="G709" s="5"/>
     </row>
     <row r="710">
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
+      <c r="F710" s="5"/>
+      <c r="G710" s="5"/>
     </row>
     <row r="711">
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
+      <c r="F711" s="5"/>
+      <c r="G711" s="5"/>
     </row>
     <row r="712">
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
+      <c r="F712" s="5"/>
+      <c r="G712" s="5"/>
     </row>
     <row r="713">
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
+      <c r="F713" s="5"/>
+      <c r="G713" s="5"/>
     </row>
     <row r="714">
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
+      <c r="F714" s="5"/>
+      <c r="G714" s="5"/>
     </row>
     <row r="715">
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
+      <c r="F715" s="5"/>
+      <c r="G715" s="5"/>
     </row>
     <row r="716">
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
+      <c r="F716" s="5"/>
+      <c r="G716" s="5"/>
     </row>
     <row r="717">
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
+      <c r="F717" s="5"/>
+      <c r="G717" s="5"/>
     </row>
     <row r="718">
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
+      <c r="F718" s="5"/>
+      <c r="G718" s="5"/>
     </row>
     <row r="719">
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
+      <c r="F719" s="5"/>
+      <c r="G719" s="5"/>
     </row>
     <row r="720">
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
+      <c r="F720" s="5"/>
+      <c r="G720" s="5"/>
     </row>
     <row r="721">
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
+      <c r="F721" s="5"/>
+      <c r="G721" s="5"/>
     </row>
     <row r="722">
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
+      <c r="F722" s="5"/>
+      <c r="G722" s="5"/>
     </row>
     <row r="723">
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
+      <c r="F723" s="5"/>
+      <c r="G723" s="5"/>
     </row>
     <row r="724">
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
+      <c r="F724" s="5"/>
+      <c r="G724" s="5"/>
     </row>
     <row r="725">
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
+      <c r="F725" s="5"/>
+      <c r="G725" s="5"/>
     </row>
     <row r="726">
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
+      <c r="F726" s="5"/>
+      <c r="G726" s="5"/>
     </row>
     <row r="727">
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
+      <c r="F727" s="5"/>
+      <c r="G727" s="5"/>
     </row>
     <row r="728">
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
+      <c r="F728" s="5"/>
+      <c r="G728" s="5"/>
     </row>
     <row r="729">
       <c r="D729" s="5"/>
       <c r="E729" s="5"/>
+      <c r="F729" s="5"/>
+      <c r="G729" s="5"/>
     </row>
     <row r="730">
       <c r="D730" s="5"/>
       <c r="E730" s="5"/>
+      <c r="F730" s="5"/>
+      <c r="G730" s="5"/>
     </row>
     <row r="731">
       <c r="D731" s="5"/>
       <c r="E731" s="5"/>
+      <c r="F731" s="5"/>
+      <c r="G731" s="5"/>
     </row>
     <row r="732">
       <c r="D732" s="5"/>
       <c r="E732" s="5"/>
+      <c r="F732" s="5"/>
+      <c r="G732" s="5"/>
     </row>
     <row r="733">
       <c r="D733" s="5"/>
       <c r="E733" s="5"/>
+      <c r="F733" s="5"/>
+      <c r="G733" s="5"/>
     </row>
     <row r="734">
       <c r="D734" s="5"/>
       <c r="E734" s="5"/>
+      <c r="F734" s="5"/>
+      <c r="G734" s="5"/>
     </row>
     <row r="735">
       <c r="D735" s="5"/>
       <c r="E735" s="5"/>
+      <c r="F735" s="5"/>
+      <c r="G735" s="5"/>
     </row>
     <row r="736">
       <c r="D736" s="5"/>
       <c r="E736" s="5"/>
+      <c r="F736" s="5"/>
+      <c r="G736" s="5"/>
     </row>
     <row r="737">
       <c r="D737" s="5"/>
       <c r="E737" s="5"/>
+      <c r="F737" s="5"/>
+      <c r="G737" s="5"/>
     </row>
     <row r="738">
       <c r="D738" s="5"/>
       <c r="E738" s="5"/>
+      <c r="F738" s="5"/>
+      <c r="G738" s="5"/>
     </row>
     <row r="739">
       <c r="D739" s="5"/>
       <c r="E739" s="5"/>
+      <c r="F739" s="5"/>
+      <c r="G739" s="5"/>
     </row>
     <row r="740">
       <c r="D740" s="5"/>
       <c r="E740" s="5"/>
+      <c r="F740" s="5"/>
+      <c r="G740" s="5"/>
     </row>
     <row r="741">
       <c r="D741" s="5"/>
       <c r="E741" s="5"/>
+      <c r="F741" s="5"/>
+      <c r="G741" s="5"/>
     </row>
     <row r="742">
       <c r="D742" s="5"/>
       <c r="E742" s="5"/>
+      <c r="F742" s="5"/>
+      <c r="G742" s="5"/>
     </row>
     <row r="743">
       <c r="D743" s="5"/>
       <c r="E743" s="5"/>
+      <c r="F743" s="5"/>
+      <c r="G743" s="5"/>
     </row>
     <row r="744">
       <c r="D744" s="5"/>
       <c r="E744" s="5"/>
+      <c r="F744" s="5"/>
+      <c r="G744" s="5"/>
     </row>
     <row r="745">
       <c r="D745" s="5"/>
       <c r="E745" s="5"/>
+      <c r="F745" s="5"/>
+      <c r="G745" s="5"/>
     </row>
     <row r="746">
       <c r="D746" s="5"/>
       <c r="E746" s="5"/>
+      <c r="F746" s="5"/>
+      <c r="G746" s="5"/>
     </row>
     <row r="747">
       <c r="D747" s="5"/>
       <c r="E747" s="5"/>
+      <c r="F747" s="5"/>
+      <c r="G747" s="5"/>
     </row>
     <row r="748">
       <c r="D748" s="5"/>
       <c r="E748" s="5"/>
+      <c r="F748" s="5"/>
+      <c r="G748" s="5"/>
     </row>
     <row r="749">
       <c r="D749" s="5"/>
       <c r="E749" s="5"/>
+      <c r="F749" s="5"/>
+      <c r="G749" s="5"/>
     </row>
     <row r="750">
       <c r="D750" s="5"/>
       <c r="E750" s="5"/>
+      <c r="F750" s="5"/>
+      <c r="G750" s="5"/>
     </row>
     <row r="751">
       <c r="D751" s="5"/>
       <c r="E751" s="5"/>
+      <c r="F751" s="5"/>
+      <c r="G751" s="5"/>
     </row>
     <row r="752">
       <c r="D752" s="5"/>
       <c r="E752" s="5"/>
+      <c r="F752" s="5"/>
+      <c r="G752" s="5"/>
     </row>
     <row r="753">
       <c r="D753" s="5"/>
       <c r="E753" s="5"/>
+      <c r="F753" s="5"/>
+      <c r="G753" s="5"/>
     </row>
     <row r="754">
       <c r="D754" s="5"/>
       <c r="E754" s="5"/>
+      <c r="F754" s="5"/>
+      <c r="G754" s="5"/>
     </row>
     <row r="755">
       <c r="D755" s="5"/>
       <c r="E755" s="5"/>
+      <c r="F755" s="5"/>
+      <c r="G755" s="5"/>
     </row>
     <row r="756">
       <c r="D756" s="5"/>
       <c r="E756" s="5"/>
+      <c r="F756" s="5"/>
+      <c r="G756" s="5"/>
     </row>
     <row r="757">
       <c r="D757" s="5"/>
       <c r="E757" s="5"/>
+      <c r="F757" s="5"/>
+      <c r="G757" s="5"/>
     </row>
     <row r="758">
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
+      <c r="F758" s="5"/>
+      <c r="G758" s="5"/>
     </row>
     <row r="759">
       <c r="D759" s="5"/>
       <c r="E759" s="5"/>
+      <c r="F759" s="5"/>
+      <c r="G759" s="5"/>
     </row>
     <row r="760">
       <c r="D760" s="5"/>
       <c r="E760" s="5"/>
+      <c r="F760" s="5"/>
+      <c r="G760" s="5"/>
     </row>
     <row r="761">
       <c r="D761" s="5"/>
       <c r="E761" s="5"/>
+      <c r="F761" s="5"/>
+      <c r="G761" s="5"/>
     </row>
     <row r="762">
       <c r="D762" s="5"/>
       <c r="E762" s="5"/>
+      <c r="F762" s="5"/>
+      <c r="G762" s="5"/>
     </row>
     <row r="763">
       <c r="D763" s="5"/>
       <c r="E763" s="5"/>
+      <c r="F763" s="5"/>
+      <c r="G763" s="5"/>
     </row>
     <row r="764">
       <c r="D764" s="5"/>
       <c r="E764" s="5"/>
+      <c r="F764" s="5"/>
+      <c r="G764" s="5"/>
     </row>
     <row r="765">
       <c r="D765" s="5"/>
       <c r="E765" s="5"/>
+      <c r="F765" s="5"/>
+      <c r="G765" s="5"/>
     </row>
     <row r="766">
       <c r="D766" s="5"/>
       <c r="E766" s="5"/>
+      <c r="F766" s="5"/>
+      <c r="G766" s="5"/>
     </row>
     <row r="767">
       <c r="D767" s="5"/>
       <c r="E767" s="5"/>
+      <c r="F767" s="5"/>
+      <c r="G767" s="5"/>
     </row>
     <row r="768">
       <c r="D768" s="5"/>
       <c r="E768" s="5"/>
+      <c r="F768" s="5"/>
+      <c r="G768" s="5"/>
     </row>
     <row r="769">
       <c r="D769" s="5"/>
       <c r="E769" s="5"/>
+      <c r="F769" s="5"/>
+      <c r="G769" s="5"/>
     </row>
     <row r="770">
       <c r="D770" s="5"/>
       <c r="E770" s="5"/>
+      <c r="F770" s="5"/>
+      <c r="G770" s="5"/>
     </row>
     <row r="771">
       <c r="D771" s="5"/>
       <c r="E771" s="5"/>
+      <c r="F771" s="5"/>
+      <c r="G771" s="5"/>
     </row>
     <row r="772">
       <c r="D772" s="5"/>
       <c r="E772" s="5"/>
+      <c r="F772" s="5"/>
+      <c r="G772" s="5"/>
     </row>
     <row r="773">
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
+      <c r="F773" s="5"/>
+      <c r="G773" s="5"/>
     </row>
     <row r="774">
       <c r="D774" s="5"/>
       <c r="E774" s="5"/>
+      <c r="F774" s="5"/>
+      <c r="G774" s="5"/>
     </row>
     <row r="775">
       <c r="D775" s="5"/>
       <c r="E775" s="5"/>
+      <c r="F775" s="5"/>
+      <c r="G775" s="5"/>
     </row>
     <row r="776">
       <c r="D776" s="5"/>
       <c r="E776" s="5"/>
+      <c r="F776" s="5"/>
+      <c r="G776" s="5"/>
     </row>
     <row r="777">
       <c r="D777" s="5"/>
       <c r="E777" s="5"/>
+      <c r="F777" s="5"/>
+      <c r="G777" s="5"/>
     </row>
     <row r="778">
       <c r="D778" s="5"/>
       <c r="E778" s="5"/>
+      <c r="F778" s="5"/>
+      <c r="G778" s="5"/>
     </row>
     <row r="779">
       <c r="D779" s="5"/>
       <c r="E779" s="5"/>
+      <c r="F779" s="5"/>
+      <c r="G779" s="5"/>
     </row>
     <row r="780">
       <c r="D780" s="5"/>
       <c r="E780" s="5"/>
+      <c r="F780" s="5"/>
+      <c r="G780" s="5"/>
     </row>
     <row r="781">
       <c r="D781" s="5"/>
       <c r="E781" s="5"/>
+      <c r="F781" s="5"/>
+      <c r="G781" s="5"/>
     </row>
     <row r="782">
       <c r="D782" s="5"/>
       <c r="E782" s="5"/>
+      <c r="F782" s="5"/>
+      <c r="G782" s="5"/>
     </row>
     <row r="783">
       <c r="D783" s="5"/>
       <c r="E783" s="5"/>
+      <c r="F783" s="5"/>
+      <c r="G783" s="5"/>
     </row>
     <row r="784">
       <c r="D784" s="5"/>
       <c r="E784" s="5"/>
+      <c r="F784" s="5"/>
+      <c r="G784" s="5"/>
     </row>
     <row r="785">
       <c r="D785" s="5"/>
       <c r="E785" s="5"/>
+      <c r="F785" s="5"/>
+      <c r="G785" s="5"/>
     </row>
     <row r="786">
       <c r="D786" s="5"/>
       <c r="E786" s="5"/>
+      <c r="F786" s="5"/>
+      <c r="G786" s="5"/>
     </row>
     <row r="787">
       <c r="D787" s="5"/>
       <c r="E787" s="5"/>
+      <c r="F787" s="5"/>
+      <c r="G787" s="5"/>
     </row>
     <row r="788">
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
+      <c r="F788" s="5"/>
+      <c r="G788" s="5"/>
     </row>
     <row r="789">
       <c r="D789" s="5"/>
       <c r="E789" s="5"/>
+      <c r="F789" s="5"/>
+      <c r="G789" s="5"/>
     </row>
     <row r="790">
       <c r="D790" s="5"/>
       <c r="E790" s="5"/>
+      <c r="F790" s="5"/>
+      <c r="G790" s="5"/>
     </row>
     <row r="791">
       <c r="D791" s="5"/>
       <c r="E791" s="5"/>
+      <c r="F791" s="5"/>
+      <c r="G791" s="5"/>
     </row>
     <row r="792">
       <c r="D792" s="5"/>
       <c r="E792" s="5"/>
+      <c r="F792" s="5"/>
+      <c r="G792" s="5"/>
     </row>
     <row r="793">
       <c r="D793" s="5"/>
       <c r="E793" s="5"/>
+      <c r="F793" s="5"/>
+      <c r="G793" s="5"/>
     </row>
     <row r="794">
       <c r="D794" s="5"/>
       <c r="E794" s="5"/>
+      <c r="F794" s="5"/>
+      <c r="G794" s="5"/>
     </row>
     <row r="795">
       <c r="D795" s="5"/>
       <c r="E795" s="5"/>
+      <c r="F795" s="5"/>
+      <c r="G795" s="5"/>
     </row>
     <row r="796">
       <c r="D796" s="5"/>
       <c r="E796" s="5"/>
+      <c r="F796" s="5"/>
+      <c r="G796" s="5"/>
     </row>
     <row r="797">
       <c r="D797" s="5"/>
       <c r="E797" s="5"/>
+      <c r="F797" s="5"/>
+      <c r="G797" s="5"/>
     </row>
     <row r="798">
       <c r="D798" s="5"/>
       <c r="E798" s="5"/>
+      <c r="F798" s="5"/>
+      <c r="G798" s="5"/>
     </row>
     <row r="799">
       <c r="D799" s="5"/>
       <c r="E799" s="5"/>
+      <c r="F799" s="5"/>
+      <c r="G799" s="5"/>
     </row>
     <row r="800">
       <c r="D800" s="5"/>
       <c r="E800" s="5"/>
+      <c r="F800" s="5"/>
+      <c r="G800" s="5"/>
     </row>
     <row r="801">
       <c r="D801" s="5"/>
       <c r="E801" s="5"/>
+      <c r="F801" s="5"/>
+      <c r="G801" s="5"/>
     </row>
     <row r="802">
       <c r="D802" s="5"/>
       <c r="E802" s="5"/>
+      <c r="F802" s="5"/>
+      <c r="G802" s="5"/>
     </row>
     <row r="803">
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
+      <c r="F803" s="5"/>
+      <c r="G803" s="5"/>
     </row>
     <row r="804">
       <c r="D804" s="5"/>
       <c r="E804" s="5"/>
+      <c r="F804" s="5"/>
+      <c r="G804" s="5"/>
     </row>
     <row r="805">
       <c r="D805" s="5"/>
       <c r="E805" s="5"/>
+      <c r="F805" s="5"/>
+      <c r="G805" s="5"/>
     </row>
     <row r="806">
       <c r="D806" s="5"/>
       <c r="E806" s="5"/>
+      <c r="F806" s="5"/>
+      <c r="G806" s="5"/>
     </row>
     <row r="807">
       <c r="D807" s="5"/>
       <c r="E807" s="5"/>
+      <c r="F807" s="5"/>
+      <c r="G807" s="5"/>
     </row>
     <row r="808">
       <c r="D808" s="5"/>
       <c r="E808" s="5"/>
+      <c r="F808" s="5"/>
+      <c r="G808" s="5"/>
     </row>
     <row r="809">
       <c r="D809" s="5"/>
       <c r="E809" s="5"/>
+      <c r="F809" s="5"/>
+      <c r="G809" s="5"/>
     </row>
     <row r="810">
       <c r="D810" s="5"/>
       <c r="E810" s="5"/>
+      <c r="F810" s="5"/>
+      <c r="G810" s="5"/>
     </row>
     <row r="811">
       <c r="D811" s="5"/>
       <c r="E811" s="5"/>
+      <c r="F811" s="5"/>
+      <c r="G811" s="5"/>
     </row>
     <row r="812">
       <c r="D812" s="5"/>
       <c r="E812" s="5"/>
+      <c r="F812" s="5"/>
+      <c r="G812" s="5"/>
     </row>
     <row r="813">
       <c r="D813" s="5"/>
       <c r="E813" s="5"/>
+      <c r="F813" s="5"/>
+      <c r="G813" s="5"/>
     </row>
     <row r="814">
       <c r="D814" s="5"/>
       <c r="E814" s="5"/>
+      <c r="F814" s="5"/>
+      <c r="G814" s="5"/>
     </row>
     <row r="815">
       <c r="D815" s="5"/>
       <c r="E815" s="5"/>
+      <c r="F815" s="5"/>
+      <c r="G815" s="5"/>
     </row>
     <row r="816">
       <c r="D816" s="5"/>
       <c r="E816" s="5"/>
+      <c r="F816" s="5"/>
+      <c r="G816" s="5"/>
     </row>
     <row r="817">
       <c r="D817" s="5"/>
       <c r="E817" s="5"/>
+      <c r="F817" s="5"/>
+      <c r="G817" s="5"/>
     </row>
     <row r="818">
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
+      <c r="F818" s="5"/>
+      <c r="G818" s="5"/>
     </row>
     <row r="819">
       <c r="D819" s="5"/>
       <c r="E819" s="5"/>
+      <c r="F819" s="5"/>
+      <c r="G819" s="5"/>
     </row>
     <row r="820">
       <c r="D820" s="5"/>
       <c r="E820" s="5"/>
+      <c r="F820" s="5"/>
+      <c r="G820" s="5"/>
     </row>
     <row r="821">
       <c r="D821" s="5"/>
       <c r="E821" s="5"/>
+      <c r="F821" s="5"/>
+      <c r="G821" s="5"/>
     </row>
     <row r="822">
       <c r="D822" s="5"/>
       <c r="E822" s="5"/>
+      <c r="F822" s="5"/>
+      <c r="G822" s="5"/>
     </row>
     <row r="823">
       <c r="D823" s="5"/>
       <c r="E823" s="5"/>
+      <c r="F823" s="5"/>
+      <c r="G823" s="5"/>
     </row>
     <row r="824">
       <c r="D824" s="5"/>
       <c r="E824" s="5"/>
+      <c r="F824" s="5"/>
+      <c r="G824" s="5"/>
     </row>
     <row r="825">
       <c r="D825" s="5"/>
       <c r="E825" s="5"/>
+      <c r="F825" s="5"/>
+      <c r="G825" s="5"/>
     </row>
     <row r="826">
       <c r="D826" s="5"/>
       <c r="E826" s="5"/>
+      <c r="F826" s="5"/>
+      <c r="G826" s="5"/>
     </row>
     <row r="827">
       <c r="D827" s="5"/>
       <c r="E827" s="5"/>
+      <c r="F827" s="5"/>
+      <c r="G827" s="5"/>
     </row>
     <row r="828">
       <c r="D828" s="5"/>
       <c r="E828" s="5"/>
+      <c r="F828" s="5"/>
+      <c r="G828" s="5"/>
     </row>
     <row r="829">
       <c r="D829" s="5"/>
       <c r="E829" s="5"/>
+      <c r="F829" s="5"/>
+      <c r="G829" s="5"/>
     </row>
     <row r="830">
       <c r="D830" s="5"/>
       <c r="E830" s="5"/>
+      <c r="F830" s="5"/>
+      <c r="G830" s="5"/>
     </row>
     <row r="831">
       <c r="D831" s="5"/>
       <c r="E831" s="5"/>
+      <c r="F831" s="5"/>
+      <c r="G831" s="5"/>
     </row>
     <row r="832">
       <c r="D832" s="5"/>
       <c r="E832" s="5"/>
+      <c r="F832" s="5"/>
+      <c r="G832" s="5"/>
     </row>
     <row r="833">
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
+      <c r="F833" s="5"/>
+      <c r="G833" s="5"/>
     </row>
     <row r="834">
       <c r="D834" s="5"/>
       <c r="E834" s="5"/>
+      <c r="F834" s="5"/>
+      <c r="G834" s="5"/>
     </row>
     <row r="835">
       <c r="D835" s="5"/>
       <c r="E835" s="5"/>
+      <c r="F835" s="5"/>
+      <c r="G835" s="5"/>
     </row>
     <row r="836">
       <c r="D836" s="5"/>
       <c r="E836" s="5"/>
+      <c r="F836" s="5"/>
+      <c r="G836" s="5"/>
     </row>
     <row r="837">
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
+      <c r="F837" s="5"/>
+      <c r="G837" s="5"/>
     </row>
     <row r="838">
       <c r="D838" s="5"/>
       <c r="E838" s="5"/>
+      <c r="F838" s="5"/>
+      <c r="G838" s="5"/>
     </row>
     <row r="839">
       <c r="D839" s="5"/>
       <c r="E839" s="5"/>
+      <c r="F839" s="5"/>
+      <c r="G839" s="5"/>
     </row>
     <row r="840">
       <c r="D840" s="5"/>
       <c r="E840" s="5"/>
+      <c r="F840" s="5"/>
+      <c r="G840" s="5"/>
     </row>
     <row r="841">
       <c r="D841" s="5"/>
       <c r="E841" s="5"/>
+      <c r="F841" s="5"/>
+      <c r="G841" s="5"/>
     </row>
     <row r="842">
       <c r="D842" s="5"/>
       <c r="E842" s="5"/>
+      <c r="F842" s="5"/>
+      <c r="G842" s="5"/>
     </row>
     <row r="843">
       <c r="D843" s="5"/>
       <c r="E843" s="5"/>
+      <c r="F843" s="5"/>
+      <c r="G843" s="5"/>
     </row>
     <row r="844">
       <c r="D844" s="5"/>
       <c r="E844" s="5"/>
+      <c r="F844" s="5"/>
+      <c r="G844" s="5"/>
     </row>
     <row r="845">
       <c r="D845" s="5"/>
       <c r="E845" s="5"/>
+      <c r="F845" s="5"/>
+      <c r="G845" s="5"/>
     </row>
     <row r="846">
       <c r="D846" s="5"/>
       <c r="E846" s="5"/>
+      <c r="F846" s="5"/>
+      <c r="G846" s="5"/>
     </row>
     <row r="847">
       <c r="D847" s="5"/>
       <c r="E847" s="5"/>
+      <c r="F847" s="5"/>
+      <c r="G847" s="5"/>
     </row>
     <row r="848">
       <c r="D848" s="5"/>
       <c r="E848" s="5"/>
+      <c r="F848" s="5"/>
+      <c r="G848" s="5"/>
     </row>
     <row r="849">
       <c r="D849" s="5"/>
       <c r="E849" s="5"/>
+      <c r="F849" s="5"/>
+      <c r="G849" s="5"/>
     </row>
     <row r="850">
       <c r="D850" s="5"/>
       <c r="E850" s="5"/>
+      <c r="F850" s="5"/>
+      <c r="G850" s="5"/>
     </row>
     <row r="851">
       <c r="D851" s="5"/>
       <c r="E851" s="5"/>
+      <c r="F851" s="5"/>
+      <c r="G851" s="5"/>
     </row>
     <row r="852">
       <c r="D852" s="5"/>
       <c r="E852" s="5"/>
+      <c r="F852" s="5"/>
+      <c r="G852" s="5"/>
     </row>
     <row r="853">
       <c r="D853" s="5"/>
       <c r="E853" s="5"/>
+      <c r="F853" s="5"/>
+      <c r="G853" s="5"/>
     </row>
     <row r="854">
       <c r="D854" s="5"/>
       <c r="E854" s="5"/>
+      <c r="F854" s="5"/>
+      <c r="G854" s="5"/>
     </row>
     <row r="855">
       <c r="D855" s="5"/>
       <c r="E855" s="5"/>
+      <c r="F855" s="5"/>
+      <c r="G855" s="5"/>
     </row>
     <row r="856">
       <c r="D856" s="5"/>
       <c r="E856" s="5"/>
+      <c r="F856" s="5"/>
+      <c r="G856" s="5"/>
     </row>
     <row r="857">
       <c r="D857" s="5"/>
       <c r="E857" s="5"/>
+      <c r="F857" s="5"/>
+      <c r="G857" s="5"/>
     </row>
     <row r="858">
       <c r="D858" s="5"/>
       <c r="E858" s="5"/>
+      <c r="F858" s="5"/>
+      <c r="G858" s="5"/>
     </row>
     <row r="859">
       <c r="D859" s="5"/>
       <c r="E859" s="5"/>
+      <c r="F859" s="5"/>
+      <c r="G859" s="5"/>
     </row>
     <row r="860">
       <c r="D860" s="5"/>
       <c r="E860" s="5"/>
+      <c r="F860" s="5"/>
+      <c r="G860" s="5"/>
     </row>
     <row r="861">
       <c r="D861" s="5"/>
       <c r="E861" s="5"/>
+      <c r="F861" s="5"/>
+      <c r="G861" s="5"/>
     </row>
     <row r="862">
       <c r="D862" s="5"/>
       <c r="E862" s="5"/>
+      <c r="F862" s="5"/>
+      <c r="G862" s="5"/>
     </row>
     <row r="863">
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
+      <c r="F863" s="5"/>
+      <c r="G863" s="5"/>
     </row>
     <row r="864">
       <c r="D864" s="5"/>
       <c r="E864" s="5"/>
+      <c r="F864" s="5"/>
+      <c r="G864" s="5"/>
     </row>
     <row r="865">
       <c r="D865" s="5"/>
       <c r="E865" s="5"/>
+      <c r="F865" s="5"/>
+      <c r="G865" s="5"/>
     </row>
     <row r="866">
       <c r="D866" s="5"/>
       <c r="E866" s="5"/>
+      <c r="F866" s="5"/>
+      <c r="G866" s="5"/>
     </row>
     <row r="867">
       <c r="D867" s="5"/>
       <c r="E867" s="5"/>
+      <c r="F867" s="5"/>
+      <c r="G867" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
